--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -621,7 +621,9 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
@@ -681,7 +683,9 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
@@ -741,7 +745,9 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
@@ -801,7 +807,9 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
         <is>
@@ -833,7 +841,12 @@
           <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hello this is a test
+</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -869,7 +882,7 @@
       <c r="V6" s="3" t="inlineStr"/>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; NB</t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr">
@@ -1421,7 +1434,9 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
         <is>
@@ -1481,7 +1496,9 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1689,7 +1706,9 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -621,8 +621,10 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
@@ -683,8 +685,10 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
@@ -745,8 +749,10 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
@@ -807,8 +813,10 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
@@ -841,12 +849,7 @@
           <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hello this is a test
-</t>
-        </is>
-      </c>
+      <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -1434,8 +1437,10 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
-        <v>0</v>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
@@ -1496,8 +1501,10 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
@@ -1706,8 +1713,10 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -597,7 +597,11 @@
           <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -629,7 +633,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; NB</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -597,11 +597,7 @@
           <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -597,7 +597,11 @@
           <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>testing prod</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>testing prod</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1461,172 +1461,177 @@
       <c r="Z15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr"/>
+      <c r="U16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" s="3" t="inlineStr"/>
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH; NB</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y16" s="3" t="inlineStr"/>
+      <c r="Z16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>BCIO:050454</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>behaviour starting point</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>A time point when a behaviour starts.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>A time point that is the start of an individual human behaviour.</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr"/>
-      <c r="W16" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X16" s="2" t="inlineStr">
+      <c r="X17" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Y16" s="2" t="inlineStr"/>
-      <c r="Z16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A process attribute of an individual human behaviour. </t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr"/>
-      <c r="Q17" s="3" t="inlineStr"/>
-      <c r="R17" s="3" t="inlineStr"/>
-      <c r="S17" s="3" t="inlineStr"/>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour has_behavioural_attribute behavioural attribute</t>
-        </is>
-      </c>
-      <c r="U17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" s="3" t="inlineStr"/>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="X17" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y17" s="3" t="inlineStr"/>
-      <c r="Z17" s="3" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
+          <t>BCIO:050435</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t xml:space="preserve">A process attribute of an individual human behaviour. </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -1646,7 +1651,7 @@
       <c r="S18" s="3" t="inlineStr"/>
       <c r="T18" s="3" t="inlineStr">
         <is>
-          <t>A person has a behaviour disposition to realise consumption behaviour</t>
+          <t>physical performance behaviour has_behavioural_attribute behavioural attribute</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
@@ -1657,179 +1662,183 @@
       <c r="V18" s="3" t="inlineStr"/>
       <c r="W18" s="3" t="inlineStr">
         <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y18" s="3" t="inlineStr"/>
+      <c r="Z18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="R19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr"/>
+      <c r="T19" s="3" t="inlineStr">
+        <is>
+          <t>A person has a behaviour disposition to realise consumption behaviour</t>
+        </is>
+      </c>
+      <c r="U19" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="3" t="inlineStr"/>
+      <c r="W19" s="3" t="inlineStr">
+        <is>
           <t>RW; JH; PS</t>
         </is>
       </c>
-      <c r="X18" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y18" s="3" t="inlineStr"/>
-      <c r="Z18" s="3" t="inlineStr">
+      <c r="X19" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y19" s="3" t="inlineStr"/>
+      <c r="Z19" s="3" t="inlineStr">
         <is>
           <t>PS - We might need to discuss this entity - not included in the annotations, but sensible to sit here. Is this entity included in AddictO?</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>BCIO:050455</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>behavioural duration</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050430</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr"/>
-      <c r="P20" s="3" t="inlineStr"/>
-      <c r="Q20" s="3" t="inlineStr"/>
-      <c r="R20" s="3" t="inlineStr"/>
-      <c r="S20" s="3" t="inlineStr"/>
-      <c r="T20" s="3" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour has_behavioural_attribute tip up tongue placement</t>
-        </is>
-      </c>
-      <c r="U20" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V20" s="3" t="inlineStr"/>
-      <c r="W20" s="3" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="X20" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y20" s="3" t="inlineStr"/>
-      <c r="Z20" s="3" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>behavioural form</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr"/>
@@ -1850,7 +1859,7 @@
       <c r="S21" s="3" t="inlineStr"/>
       <c r="T21" s="3" t="inlineStr">
         <is>
-          <t>walking three times a week</t>
+          <t>linguistic communication behaviour has_behavioural_attribute tip up tongue placement</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
@@ -1861,7 +1870,7 @@
       <c r="V21" s="3" t="inlineStr"/>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>PS; JH; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X21" s="3" t="inlineStr">
@@ -1875,25 +1884,29 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050428</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr"/>
@@ -1914,7 +1927,7 @@
       <c r="S22" s="3" t="inlineStr"/>
       <c r="T22" s="3" t="inlineStr">
         <is>
-          <t>Showering, bathing, makeup removing</t>
+          <t>walking three times a week</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
@@ -1925,7 +1938,7 @@
       <c r="V22" s="3" t="inlineStr"/>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
@@ -1939,25 +1952,25 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>breathing behaviour</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr"/>
@@ -1978,7 +1991,7 @@
       <c r="S23" s="3" t="inlineStr"/>
       <c r="T23" s="3" t="inlineStr">
         <is>
-          <t>Inhaling, exhaling</t>
+          <t>Showering, bathing, makeup removing</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
@@ -1989,7 +2002,7 @@
       <c r="V23" s="3" t="inlineStr"/>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X23" s="3" t="inlineStr">
@@ -2003,25 +2016,25 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bullying behaviour </t>
+          <t>breathing behaviour</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harassment behaviour </t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr"/>
@@ -2039,14 +2052,10 @@
       <c r="P24" s="3" t="inlineStr"/>
       <c r="Q24" s="3" t="inlineStr"/>
       <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
-        </is>
-      </c>
+      <c r="S24" s="3" t="inlineStr"/>
       <c r="T24" s="3" t="inlineStr">
         <is>
-          <t>Cyberbullying</t>
+          <t>Inhaling, exhaling</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
@@ -2057,7 +2066,7 @@
       <c r="V24" s="3" t="inlineStr"/>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
@@ -2066,34 +2075,30 @@
         </is>
       </c>
       <c r="Y24" s="3" t="inlineStr"/>
-      <c r="Z24" s="3" t="inlineStr">
-        <is>
-          <t>From Britannica https://www.britannica.com/topic/bullying. Intentional harm-doing or harassment that is directed toward vulnerable targets and typically repeated. Bullying encompasses a wide range of malicious aggressive behaviours, including physical violence, verbal mockery, threats, ostracism, and rumours spread either orally or by other means of communication, such as the Internet.</t>
-        </is>
-      </c>
+      <c r="Z24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">care-giving behaviour </t>
+          <t xml:space="preserve">bullying behaviour </t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t xml:space="preserve">harassment behaviour </t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr"/>
@@ -2111,10 +2116,14 @@
       <c r="P25" s="3" t="inlineStr"/>
       <c r="Q25" s="3" t="inlineStr"/>
       <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+        </is>
+      </c>
       <c r="T25" s="3" t="inlineStr">
         <is>
-          <t>Breast feeding, Nappy changing, Feeding, Nursing behaviour, Provide care</t>
+          <t>Cyberbullying</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
@@ -2134,37 +2143,37 @@
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr"/>
-      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="Z25" s="3" t="inlineStr">
+        <is>
+          <t>From Britannica https://www.britannica.com/topic/bullying. Intentional harm-doing or harassment that is directed toward vulnerable targets and typically repeated. Bullying encompasses a wide range of malicious aggressive behaviours, including physical violence, verbal mockery, threats, ostracism, and rumours spread either orally or by other means of communication, such as the Internet.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking behaviour</t>
+          <t xml:space="preserve">care-giving behaviour </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>social support behaviour</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr"/>
       <c r="I26" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2180,7 +2189,11 @@
       <c r="Q26" s="3" t="inlineStr"/>
       <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr">
+        <is>
+          <t>Breast feeding, Nappy changing, Feeding, Nursing behaviour, Provide care</t>
+        </is>
+      </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2189,7 +2202,7 @@
       <c r="V26" s="3" t="inlineStr"/>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
@@ -2203,26 +2216,25 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCIO:036106
-</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking behaviour pattern</t>
+          <t>cigarette smoking behaviour</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
@@ -2268,25 +2280,26 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t xml:space="preserve">BCIO:036106
+</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking cessation</t>
+          <t>cigarette smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -2318,7 +2331,7 @@
       <c r="V28" s="3" t="inlineStr"/>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -2332,32 +2345,32 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr"/>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2373,11 +2386,7 @@
       <c r="Q29" s="3" t="inlineStr"/>
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr"/>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doing mathematics homework has high cognitive exertion expended on a behaviour </t>
-        </is>
-      </c>
+      <c r="T29" s="3" t="inlineStr"/>
       <c r="U29" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2386,7 +2395,7 @@
       <c r="V29" s="3" t="inlineStr"/>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X29" s="3" t="inlineStr">
@@ -2400,32 +2409,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves ingesting material into the body.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr"/>
       <c r="I30" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2441,7 +2450,11 @@
       <c r="Q30" s="3" t="inlineStr"/>
       <c r="R30" s="3" t="inlineStr"/>
       <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doing mathematics homework has high cognitive exertion expended on a behaviour </t>
+        </is>
+      </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2450,7 +2463,7 @@
       <c r="V30" s="3" t="inlineStr"/>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
@@ -2464,25 +2477,25 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t xml:space="preserve">consumption behaviour </t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>An object-using behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
@@ -2514,7 +2527,7 @@
       <c r="V31" s="3" t="inlineStr"/>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
@@ -2528,25 +2541,25 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">creative expressive behaviour   </t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -2568,16 +2581,8 @@
       <c r="P32" s="3" t="inlineStr"/>
       <c r="Q32" s="3" t="inlineStr"/>
       <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
-        </is>
-      </c>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>Expressive dancing, Singing, Playing Music</t>
-        </is>
-      </c>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
       <c r="U32" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2586,7 +2591,7 @@
       <c r="V32" s="3" t="inlineStr"/>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr">
@@ -2600,28 +2605,32 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">dental hygiene behaviour </t>
+          <t xml:space="preserve">creative expressive behaviour   </t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>An experience-related behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2636,10 +2645,14 @@
       <c r="P33" s="3" t="inlineStr"/>
       <c r="Q33" s="3" t="inlineStr"/>
       <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
       <c r="T33" s="3" t="inlineStr">
         <is>
-          <t>Tooth-brushing, flossing, using mouthwash</t>
+          <t>Expressive dancing, Singing, Playing Music</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
@@ -2650,7 +2663,7 @@
       <c r="V33" s="3" t="inlineStr"/>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X33" s="3" t="inlineStr">
@@ -2664,25 +2677,25 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>diagnostic healthcare behaviour</t>
+          <t xml:space="preserve">dental hygiene behaviour </t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr"/>
@@ -2700,12 +2713,12 @@
       <c r="P34" s="3" t="inlineStr"/>
       <c r="Q34" s="3" t="inlineStr"/>
       <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
-        </is>
-      </c>
-      <c r="T34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr">
+        <is>
+          <t>Tooth-brushing, flossing, using mouthwash</t>
+        </is>
+      </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2728,25 +2741,25 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">digital interaction behaviour </t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr"/>
@@ -2764,7 +2777,11 @@
       <c r="P35" s="3" t="inlineStr"/>
       <c r="Q35" s="3" t="inlineStr"/>
       <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
       <c r="T35" s="3" t="inlineStr"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -2788,25 +2805,25 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t xml:space="preserve">digital interaction behaviour </t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr"/>
@@ -2822,11 +2839,7 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
-        </is>
-      </c>
+      <c r="Q36" s="3" t="inlineStr"/>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr"/>
       <c r="T36" s="3" t="inlineStr"/>
@@ -2852,25 +2865,25 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr"/>
@@ -2886,7 +2899,11 @@
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
+        </is>
+      </c>
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr"/>
       <c r="T37" s="3" t="inlineStr"/>
@@ -2912,25 +2929,25 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr"/>
@@ -2972,25 +2989,25 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>e-cigarette use</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr"/>
@@ -3008,11 +3025,7 @@
       <c r="P39" s="3" t="inlineStr"/>
       <c r="Q39" s="3" t="inlineStr"/>
       <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
-        </is>
-      </c>
+      <c r="S39" s="3" t="inlineStr"/>
       <c r="T39" s="3" t="inlineStr"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3036,25 +3049,25 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t>e-cigarette use</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
+          <t>Inhaling consumption that that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>electronic vaping device use</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
@@ -3072,7 +3085,11 @@
       <c r="P40" s="3" t="inlineStr"/>
       <c r="Q40" s="3" t="inlineStr"/>
       <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+        </is>
+      </c>
       <c r="T40" s="3" t="inlineStr"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -3096,32 +3113,28 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>eating</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>oral consumption</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr"/>
       <c r="I41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3136,17 +3149,8 @@
       <c r="P41" s="3" t="inlineStr"/>
       <c r="Q41" s="3" t="inlineStr"/>
       <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="inlineStr">
-        <is>
-          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
-        </is>
-      </c>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
       <c r="U41" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3155,7 +3159,7 @@
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr">
@@ -3169,28 +3173,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3205,8 +3213,17 @@
       <c r="P42" s="3" t="inlineStr"/>
       <c r="Q42" s="3" t="inlineStr"/>
       <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr"/>
-      <c r="T42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
+        </is>
+      </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3215,7 +3232,7 @@
       <c r="V42" s="3" t="inlineStr"/>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr">
@@ -3229,29 +3246,25 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
-        </is>
-      </c>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
@@ -3270,11 +3283,7 @@
       <c r="Q43" s="3" t="inlineStr"/>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr">
-        <is>
-          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="T43" s="3" t="inlineStr"/>
       <c r="U43" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3283,7 +3292,7 @@
       <c r="V43" s="3" t="inlineStr"/>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr">
@@ -3297,25 +3306,29 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr"/>
@@ -3333,14 +3346,10 @@
       <c r="P44" s="3" t="inlineStr"/>
       <c r="Q44" s="3" t="inlineStr"/>
       <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
-        </is>
-      </c>
+      <c r="S44" s="3" t="inlineStr"/>
       <c r="T44" s="3" t="inlineStr">
         <is>
-          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
+          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
@@ -3351,7 +3360,7 @@
       <c r="V44" s="3" t="inlineStr"/>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr">
@@ -3365,25 +3374,25 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
+          <t>employment behaviour</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="H45" s="3" t="inlineStr"/>
@@ -3401,10 +3410,14 @@
       <c r="P45" s="3" t="inlineStr"/>
       <c r="Q45" s="3" t="inlineStr"/>
       <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+        </is>
+      </c>
       <c r="T45" s="3" t="inlineStr">
         <is>
-          <t>Playing</t>
+          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
@@ -3415,7 +3428,7 @@
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; JH; PS</t>
         </is>
       </c>
       <c r="X45" s="3" t="inlineStr">
@@ -3429,36 +3442,28 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr"/>
       <c r="I46" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3473,14 +3478,10 @@
       <c r="P46" s="3" t="inlineStr"/>
       <c r="Q46" s="3" t="inlineStr"/>
       <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
-        </is>
-      </c>
+      <c r="S46" s="3" t="inlineStr"/>
       <c r="T46" s="3" t="inlineStr">
         <is>
-          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
+          <t>Playing</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
@@ -3505,28 +3506,36 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr"/>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3541,10 +3550,14 @@
       <c r="P47" s="3" t="inlineStr"/>
       <c r="Q47" s="3" t="inlineStr"/>
       <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
       <c r="T47" s="3" t="inlineStr">
         <is>
-          <t>Urinating, Defecating, Induced vomiting</t>
+          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
@@ -3555,7 +3568,7 @@
       <c r="V47" s="3" t="inlineStr"/>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X47" s="3" t="inlineStr">
@@ -3569,25 +3582,25 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr"/>
@@ -3606,7 +3619,11 @@
       <c r="Q48" s="3" t="inlineStr"/>
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr">
+        <is>
+          <t>Urinating, Defecating, Induced vomiting</t>
+        </is>
+      </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3615,7 +3632,7 @@
       <c r="V48" s="3" t="inlineStr"/>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X48" s="3" t="inlineStr">
@@ -3627,151 +3644,151 @@
       <c r="Z48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X49" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y49" s="3" t="inlineStr"/>
+      <c r="Z49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>BFO:0000034</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050369</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" s="3" t="inlineStr"/>
-      <c r="W50" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X50" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y50" s="3" t="inlineStr"/>
-      <c r="Z50" s="3" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>handwashing</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr"/>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H51" s="3" t="inlineStr"/>
@@ -3790,11 +3807,7 @@
       <c r="Q51" s="3" t="inlineStr"/>
       <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr"/>
-      <c r="T51" s="3" t="inlineStr">
-        <is>
-          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
-        </is>
-      </c>
+      <c r="T51" s="3" t="inlineStr"/>
       <c r="U51" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3803,7 +3816,7 @@
       <c r="V51" s="3" t="inlineStr"/>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X51" s="3" t="inlineStr">
@@ -3817,25 +3830,25 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr"/>
@@ -3856,7 +3869,7 @@
       <c r="S52" s="3" t="inlineStr"/>
       <c r="T52" s="3" t="inlineStr">
         <is>
-          <t>Vandalism, Sabotaging, Polluting</t>
+          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
@@ -3881,25 +3894,25 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr"/>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr"/>
@@ -3917,15 +3930,10 @@
       <c r="P53" s="3" t="inlineStr"/>
       <c r="Q53" s="3" t="inlineStr"/>
       <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
+      <c r="S53" s="3" t="inlineStr"/>
       <c r="T53" s="3" t="inlineStr">
         <is>
-          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
+          <t>Vandalism, Sabotaging, Polluting</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
@@ -3936,7 +3944,7 @@
       <c r="V53" s="3" t="inlineStr"/>
       <c r="W53" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X53" s="3" t="inlineStr">
@@ -3950,25 +3958,25 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr"/>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr"/>
@@ -3986,8 +3994,17 @@
       <c r="P54" s="3" t="inlineStr"/>
       <c r="Q54" s="3" t="inlineStr"/>
       <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr"/>
-      <c r="T54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
+      <c r="T54" s="3" t="inlineStr">
+        <is>
+          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
+        </is>
+      </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3996,7 +4013,7 @@
       <c r="V54" s="3" t="inlineStr"/>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X54" s="3" t="inlineStr">
@@ -4010,25 +4027,25 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves the transmission of information.</t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
@@ -4047,11 +4064,7 @@
       <c r="Q55" s="3" t="inlineStr"/>
       <c r="R55" s="3" t="inlineStr"/>
       <c r="S55" s="3" t="inlineStr"/>
-      <c r="T55" s="3" t="inlineStr">
-        <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
-        </is>
-      </c>
+      <c r="T55" s="3" t="inlineStr"/>
       <c r="U55" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4060,7 +4073,7 @@
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X55" s="3" t="inlineStr">
@@ -4074,25 +4087,25 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>An inter-personal behaviour that involves the transmission of information.</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr"/>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -4110,15 +4123,10 @@
       <c r="P56" s="3" t="inlineStr"/>
       <c r="Q56" s="3" t="inlineStr"/>
       <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
+      <c r="S56" s="3" t="inlineStr"/>
       <c r="T56" s="3" t="inlineStr">
         <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
@@ -4129,7 +4137,7 @@
       <c r="V56" s="3" t="inlineStr"/>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr">
@@ -4143,29 +4151,25 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr"/>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">function </t>
         </is>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
@@ -4185,10 +4189,15 @@
       <c r="R57" s="3" t="inlineStr"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr"/>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4197,7 +4206,7 @@
       <c r="V57" s="3" t="inlineStr"/>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X57" s="3" t="inlineStr">
@@ -4211,25 +4220,29 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr"/>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr"/>
@@ -4238,11 +4251,7 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J58" s="3" t="inlineStr"/>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="inlineStr"/>
       <c r="M58" s="3" t="inlineStr"/>
@@ -4253,11 +4262,7 @@
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr"/>
@@ -4269,7 +4274,7 @@
       <c r="V58" s="3" t="inlineStr"/>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X58" s="3" t="inlineStr">
@@ -4278,75 +4283,61 @@
         </is>
       </c>
       <c r="Y58" s="3" t="inlineStr"/>
-      <c r="Z58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
-o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
-</t>
-        </is>
-      </c>
+      <c r="Z58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr"/>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr"/>
       <c r="I59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="inlineStr"/>
       <c r="M59" s="3" t="inlineStr"/>
       <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr"/>
       <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
+      <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
-        </is>
-      </c>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="T59" s="3" t="inlineStr"/>
       <c r="U59" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4355,7 +4346,7 @@
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr">
@@ -4364,39 +4355,45 @@
         </is>
       </c>
       <c r="Y59" s="3" t="inlineStr"/>
-      <c r="Z59" s="3" t="inlineStr"/>
+      <c r="Z59" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
+o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
+</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr"/>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr">
@@ -4410,7 +4407,87 @@
       <c r="M60" s="3" t="inlineStr"/>
       <c r="N60" s="3" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr"/>
-      <c r="P60" s="3" t="inlineStr">
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="T60" s="3" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
+      <c r="U60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr">
+        <is>
+          <t>RW; PS</t>
+        </is>
+      </c>
+      <c r="X60" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y60" s="3" t="inlineStr"/>
+      <c r="Z60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -4422,94 +4499,18 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="Q60" s="3" t="inlineStr">
+      <c r="Q61" s="3" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr"/>
-      <c r="S60" s="3" t="inlineStr">
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
-      <c r="T60" s="3" t="inlineStr"/>
-      <c r="U60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X60" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y60" s="3" t="inlineStr"/>
-      <c r="Z60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050207</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr"/>
       <c r="T61" s="3" t="inlineStr"/>
       <c r="U61" s="3" t="inlineStr">
         <is>
@@ -4519,7 +4520,7 @@
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X61" s="3" t="inlineStr">
@@ -4533,28 +4534,36 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I62" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4566,8 +4575,16 @@
       <c r="M62" s="3" t="inlineStr"/>
       <c r="N62" s="3" t="inlineStr"/>
       <c r="O62" s="3" t="inlineStr"/>
-      <c r="P62" s="3" t="inlineStr"/>
-      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="Q62" s="3" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="R62" s="3" t="inlineStr"/>
       <c r="S62" s="3" t="inlineStr"/>
       <c r="T62" s="3" t="inlineStr"/>
@@ -4579,7 +4596,7 @@
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X62" s="3" t="inlineStr">
@@ -4593,29 +4610,25 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr"/>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr"/>
@@ -4633,11 +4646,7 @@
       <c r="P63" s="3" t="inlineStr"/>
       <c r="Q63" s="3" t="inlineStr"/>
       <c r="R63" s="3" t="inlineStr"/>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
+      <c r="S63" s="3" t="inlineStr"/>
       <c r="T63" s="3" t="inlineStr"/>
       <c r="U63" s="3" t="inlineStr">
         <is>
@@ -4661,32 +4670,32 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr"/>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr"/>
       <c r="I64" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4701,7 +4710,11 @@
       <c r="P64" s="3" t="inlineStr"/>
       <c r="Q64" s="3" t="inlineStr"/>
       <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="T64" s="3" t="inlineStr"/>
       <c r="U64" s="3" t="inlineStr">
         <is>
@@ -4711,7 +4724,7 @@
       <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X64" s="3" t="inlineStr">
@@ -4725,28 +4738,32 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4771,7 +4788,7 @@
       <c r="V65" s="3" t="inlineStr"/>
       <c r="W65" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X65" s="3" t="inlineStr">
@@ -4785,25 +4802,25 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr"/>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H66" s="3" t="inlineStr"/>
@@ -4831,7 +4848,7 @@
       <c r="V66" s="3" t="inlineStr"/>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X66" s="3" t="inlineStr">
@@ -4845,25 +4862,25 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr"/>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H67" s="3" t="inlineStr"/>
@@ -4891,7 +4908,7 @@
       <c r="V67" s="3" t="inlineStr"/>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="X67" s="3" t="inlineStr">
@@ -4905,32 +4922,28 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr"/>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr"/>
       <c r="I68" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4946,11 +4959,7 @@
       <c r="Q68" s="3" t="inlineStr"/>
       <c r="R68" s="3" t="inlineStr"/>
       <c r="S68" s="3" t="inlineStr"/>
-      <c r="T68" s="3" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T68" s="3" t="inlineStr"/>
       <c r="U68" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4959,7 +4968,7 @@
       <c r="V68" s="3" t="inlineStr"/>
       <c r="W68" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X68" s="3" t="inlineStr">
@@ -4973,28 +4982,32 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5010,7 +5023,11 @@
       <c r="Q69" s="3" t="inlineStr"/>
       <c r="R69" s="3" t="inlineStr"/>
       <c r="S69" s="3" t="inlineStr"/>
-      <c r="T69" s="3" t="inlineStr"/>
+      <c r="T69" s="3" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5019,7 +5036,7 @@
       <c r="V69" s="3" t="inlineStr"/>
       <c r="W69" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X69" s="3" t="inlineStr">
@@ -5033,25 +5050,25 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H70" s="3" t="inlineStr"/>
@@ -5079,7 +5096,7 @@
       <c r="V70" s="3" t="inlineStr"/>
       <c r="W70" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X70" s="3" t="inlineStr">
@@ -5093,32 +5110,28 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr"/>
       <c r="I71" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5134,11 +5147,7 @@
       <c r="Q71" s="3" t="inlineStr"/>
       <c r="R71" s="3" t="inlineStr"/>
       <c r="S71" s="3" t="inlineStr"/>
-      <c r="T71" s="3" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T71" s="3" t="inlineStr"/>
       <c r="U71" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5147,7 +5156,7 @@
       <c r="V71" s="3" t="inlineStr"/>
       <c r="W71" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X71" s="3" t="inlineStr">
@@ -5161,28 +5170,32 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I72" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5198,7 +5211,11 @@
       <c r="Q72" s="3" t="inlineStr"/>
       <c r="R72" s="3" t="inlineStr"/>
       <c r="S72" s="3" t="inlineStr"/>
-      <c r="T72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5207,7 +5224,7 @@
       <c r="V72" s="3" t="inlineStr"/>
       <c r="W72" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X72" s="3" t="inlineStr">
@@ -5221,25 +5238,25 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H73" s="3" t="inlineStr"/>
@@ -5267,7 +5284,7 @@
       <c r="V73" s="3" t="inlineStr"/>
       <c r="W73" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X73" s="3" t="inlineStr">
@@ -5281,25 +5298,25 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H74" s="3" t="inlineStr"/>
@@ -5318,11 +5335,7 @@
       <c r="Q74" s="3" t="inlineStr"/>
       <c r="R74" s="3" t="inlineStr"/>
       <c r="S74" s="3" t="inlineStr"/>
-      <c r="T74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T74" s="3" t="inlineStr"/>
       <c r="U74" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5331,7 +5344,7 @@
       <c r="V74" s="3" t="inlineStr"/>
       <c r="W74" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X74" s="3" t="inlineStr">
@@ -5345,25 +5358,25 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr"/>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H75" s="3" t="inlineStr"/>
@@ -5382,7 +5395,11 @@
       <c r="Q75" s="3" t="inlineStr"/>
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
-      <c r="T75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5391,7 +5408,7 @@
       <c r="V75" s="3" t="inlineStr"/>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X75" s="3" t="inlineStr">
@@ -5405,25 +5422,25 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H76" s="3" t="inlineStr"/>
@@ -5439,17 +5456,9 @@
       <c r="N76" s="3" t="inlineStr"/>
       <c r="O76" s="3" t="inlineStr"/>
       <c r="P76" s="3" t="inlineStr"/>
-      <c r="Q76" s="3" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q76" s="3" t="inlineStr"/>
       <c r="R76" s="3" t="inlineStr"/>
-      <c r="S76" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="S76" s="3" t="inlineStr"/>
       <c r="T76" s="3" t="inlineStr"/>
       <c r="U76" s="3" t="inlineStr">
         <is>
@@ -5459,7 +5468,7 @@
       <c r="V76" s="3" t="inlineStr"/>
       <c r="W76" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X76" s="3" t="inlineStr">
@@ -5473,29 +5482,25 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr"/>
@@ -5511,14 +5516,18 @@
       <c r="N77" s="3" t="inlineStr"/>
       <c r="O77" s="3" t="inlineStr"/>
       <c r="P77" s="3" t="inlineStr"/>
-      <c r="Q77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R77" s="3" t="inlineStr"/>
-      <c r="S77" s="3" t="inlineStr"/>
-      <c r="T77" s="3" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="S77" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="T77" s="3" t="inlineStr"/>
       <c r="U77" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5527,7 +5536,7 @@
       <c r="V77" s="3" t="inlineStr"/>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr">
@@ -5541,25 +5550,29 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H78" s="3" t="inlineStr"/>
@@ -5580,7 +5593,7 @@
       <c r="S78" s="3" t="inlineStr"/>
       <c r="T78" s="3" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U78" s="3" t="inlineStr">
@@ -5591,7 +5604,7 @@
       <c r="V78" s="3" t="inlineStr"/>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X78" s="3" t="inlineStr">
@@ -5605,25 +5618,25 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr"/>
@@ -5642,7 +5655,11 @@
       <c r="Q79" s="3" t="inlineStr"/>
       <c r="R79" s="3" t="inlineStr"/>
       <c r="S79" s="3" t="inlineStr"/>
-      <c r="T79" s="3" t="inlineStr"/>
+      <c r="T79" s="3" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5651,7 +5668,7 @@
       <c r="V79" s="3" t="inlineStr"/>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X79" s="3" t="inlineStr">
@@ -5665,25 +5682,25 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr"/>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr"/>
@@ -5725,25 +5742,25 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr"/>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H81" s="3" t="inlineStr"/>
@@ -5771,7 +5788,7 @@
       <c r="V81" s="3" t="inlineStr"/>
       <c r="W81" s="3" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X81" s="3" t="inlineStr">
@@ -5785,18 +5802,18 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr"/>
@@ -5831,7 +5848,7 @@
       <c r="V82" s="3" t="inlineStr"/>
       <c r="W82" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X82" s="3" t="inlineStr">
@@ -5845,25 +5862,25 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr"/>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H83" s="3" t="inlineStr"/>
@@ -5881,16 +5898,8 @@
       <c r="P83" s="3" t="inlineStr"/>
       <c r="Q83" s="3" t="inlineStr"/>
       <c r="R83" s="3" t="inlineStr"/>
-      <c r="S83" s="3" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T83" s="3" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="inlineStr"/>
       <c r="U83" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5899,7 +5908,7 @@
       <c r="V83" s="3" t="inlineStr"/>
       <c r="W83" s="3" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X83" s="3" t="inlineStr">
@@ -5913,25 +5922,25 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr"/>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H84" s="3" t="inlineStr"/>
@@ -5949,8 +5958,16 @@
       <c r="P84" s="3" t="inlineStr"/>
       <c r="Q84" s="3" t="inlineStr"/>
       <c r="R84" s="3" t="inlineStr"/>
-      <c r="S84" s="3" t="inlineStr"/>
-      <c r="T84" s="3" t="inlineStr"/>
+      <c r="S84" s="3" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T84" s="3" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5959,7 +5976,7 @@
       <c r="V84" s="3" t="inlineStr"/>
       <c r="W84" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X84" s="3" t="inlineStr">
@@ -5973,29 +5990,25 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr"/>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H85" s="3" t="inlineStr"/>
@@ -6014,11 +6027,7 @@
       <c r="Q85" s="3" t="inlineStr"/>
       <c r="R85" s="3" t="inlineStr"/>
       <c r="S85" s="3" t="inlineStr"/>
-      <c r="T85" s="3" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="T85" s="3" t="inlineStr"/>
       <c r="U85" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6027,7 +6036,7 @@
       <c r="V85" s="3" t="inlineStr"/>
       <c r="W85" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X85" s="3" t="inlineStr">
@@ -6041,25 +6050,29 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr"/>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H86" s="3" t="inlineStr"/>
@@ -6077,15 +6090,10 @@
       <c r="P86" s="3" t="inlineStr"/>
       <c r="Q86" s="3" t="inlineStr"/>
       <c r="R86" s="3" t="inlineStr"/>
-      <c r="S86" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="S86" s="3" t="inlineStr"/>
       <c r="T86" s="3" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
@@ -6096,7 +6104,7 @@
       <c r="V86" s="3" t="inlineStr"/>
       <c r="W86" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X86" s="3" t="inlineStr">
@@ -6110,25 +6118,25 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr"/>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr"/>
@@ -6148,12 +6156,13 @@
       <c r="R87" s="3" t="inlineStr"/>
       <c r="S87" s="3" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="T87" s="3" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
@@ -6164,7 +6173,7 @@
       <c r="V87" s="3" t="inlineStr"/>
       <c r="W87" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X87" s="3" t="inlineStr">
@@ -6178,32 +6187,28 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr"/>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr"/>
       <c r="I88" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6220,12 +6225,12 @@
       <c r="R88" s="3" t="inlineStr"/>
       <c r="S88" s="3" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T88" s="3" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U88" s="3" t="inlineStr">
@@ -6250,28 +6255,32 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H89" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6286,8 +6295,16 @@
       <c r="P89" s="3" t="inlineStr"/>
       <c r="Q89" s="3" t="inlineStr"/>
       <c r="R89" s="3" t="inlineStr"/>
-      <c r="S89" s="3" t="inlineStr"/>
-      <c r="T89" s="3" t="inlineStr"/>
+      <c r="S89" s="3" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="T89" s="3" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6296,7 +6313,7 @@
       <c r="V89" s="3" t="inlineStr"/>
       <c r="W89" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X89" s="3" t="inlineStr">
@@ -6310,25 +6327,25 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr"/>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr"/>
@@ -6370,25 +6387,25 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H91" s="3" t="inlineStr"/>
@@ -6407,11 +6424,7 @@
       <c r="Q91" s="3" t="inlineStr"/>
       <c r="R91" s="3" t="inlineStr"/>
       <c r="S91" s="3" t="inlineStr"/>
-      <c r="T91" s="3" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="T91" s="3" t="inlineStr"/>
       <c r="U91" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6434,25 +6447,25 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr"/>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H92" s="3" t="inlineStr"/>
@@ -6470,14 +6483,10 @@
       <c r="P92" s="3" t="inlineStr"/>
       <c r="Q92" s="3" t="inlineStr"/>
       <c r="R92" s="3" t="inlineStr"/>
-      <c r="S92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="S92" s="3" t="inlineStr"/>
       <c r="T92" s="3" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="U92" s="3" t="inlineStr">
@@ -6502,18 +6511,18 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr"/>
@@ -6538,10 +6547,14 @@
       <c r="P93" s="3" t="inlineStr"/>
       <c r="Q93" s="3" t="inlineStr"/>
       <c r="R93" s="3" t="inlineStr"/>
-      <c r="S93" s="3" t="inlineStr"/>
+      <c r="S93" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T93" s="3" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U93" s="3" t="inlineStr">
@@ -6566,25 +6579,25 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H94" s="3" t="inlineStr"/>
@@ -6603,7 +6616,11 @@
       <c r="Q94" s="3" t="inlineStr"/>
       <c r="R94" s="3" t="inlineStr"/>
       <c r="S94" s="3" t="inlineStr"/>
-      <c r="T94" s="3" t="inlineStr"/>
+      <c r="T94" s="3" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6626,18 +6643,18 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
@@ -6686,18 +6703,18 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr"/>
@@ -6746,18 +6763,18 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr"/>
@@ -6806,32 +6823,28 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr"/>
       <c r="I98" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6846,16 +6859,8 @@
       <c r="P98" s="3" t="inlineStr"/>
       <c r="Q98" s="3" t="inlineStr"/>
       <c r="R98" s="3" t="inlineStr"/>
-      <c r="S98" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T98" s="3" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
       <c r="U98" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6864,7 +6869,7 @@
       <c r="V98" s="3" t="inlineStr"/>
       <c r="W98" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X98" s="3" t="inlineStr">
@@ -6878,28 +6883,32 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr"/>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H99" s="3" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6916,12 +6925,12 @@
       <c r="R99" s="3" t="inlineStr"/>
       <c r="S99" s="3" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="T99" s="3" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="U99" s="3" t="inlineStr">
@@ -6932,7 +6941,7 @@
       <c r="V99" s="3" t="inlineStr"/>
       <c r="W99" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X99" s="3" t="inlineStr">
@@ -6946,25 +6955,25 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr"/>
@@ -6982,10 +6991,14 @@
       <c r="P100" s="3" t="inlineStr"/>
       <c r="Q100" s="3" t="inlineStr"/>
       <c r="R100" s="3" t="inlineStr"/>
-      <c r="S100" s="3" t="inlineStr"/>
+      <c r="S100" s="3" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T100" s="3" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U100" s="3" t="inlineStr">
@@ -6996,7 +7009,7 @@
       <c r="V100" s="3" t="inlineStr"/>
       <c r="W100" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X100" s="3" t="inlineStr">
@@ -7010,29 +7023,25 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr"/>
@@ -7053,7 +7062,7 @@
       <c r="S101" s="3" t="inlineStr"/>
       <c r="T101" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U101" s="3" t="inlineStr">
@@ -7064,7 +7073,7 @@
       <c r="V101" s="3" t="inlineStr"/>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X101" s="3" t="inlineStr">
@@ -7078,32 +7087,32 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H102" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr"/>
       <c r="I102" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7121,20 +7130,18 @@
       <c r="S102" s="3" t="inlineStr"/>
       <c r="T102" s="3" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U102" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V102" s="3" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="U102" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V102" s="3" t="inlineStr"/>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X102" s="3" t="inlineStr">
@@ -7148,28 +7155,32 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H103" s="3" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H103" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I103" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7187,18 +7198,20 @@
       <c r="S103" s="3" t="inlineStr"/>
       <c r="T103" s="3" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="U103" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V103" s="3" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U103" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" s="3" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W103" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X103" s="3" t="inlineStr">
@@ -7212,32 +7225,28 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr"/>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H104" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="inlineStr"/>
       <c r="I104" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7255,7 +7264,7 @@
       <c r="S104" s="3" t="inlineStr"/>
       <c r="T104" s="3" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="U104" s="3" t="inlineStr">
@@ -7266,7 +7275,7 @@
       <c r="V104" s="3" t="inlineStr"/>
       <c r="W104" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X104" s="3" t="inlineStr">
@@ -7280,28 +7289,32 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr"/>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H105" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H105" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I105" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7317,7 +7330,11 @@
       <c r="Q105" s="3" t="inlineStr"/>
       <c r="R105" s="3" t="inlineStr"/>
       <c r="S105" s="3" t="inlineStr"/>
-      <c r="T105" s="3" t="inlineStr"/>
+      <c r="T105" s="3" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7326,7 +7343,7 @@
       <c r="V105" s="3" t="inlineStr"/>
       <c r="W105" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X105" s="3" t="inlineStr">
@@ -7340,26 +7357,25 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr"/>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H106" s="3" t="inlineStr"/>
@@ -7401,25 +7417,26 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H107" s="3" t="inlineStr"/>
@@ -7447,7 +7464,7 @@
       <c r="V107" s="3" t="inlineStr"/>
       <c r="W107" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X107" s="3" t="inlineStr">
@@ -7461,32 +7478,28 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H108" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H108" s="3" t="inlineStr"/>
       <c r="I108" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7511,7 +7524,7 @@
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X108" s="3" t="inlineStr">
@@ -7525,28 +7538,32 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr"/>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H109" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I109" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7571,7 +7588,7 @@
       <c r="V109" s="3" t="inlineStr"/>
       <c r="W109" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X109" s="3" t="inlineStr">
@@ -7585,25 +7602,25 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H110" s="3" t="inlineStr"/>
@@ -7645,18 +7662,18 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr"/>
@@ -7681,12 +7698,7 @@
       <c r="P111" s="3" t="inlineStr"/>
       <c r="Q111" s="3" t="inlineStr"/>
       <c r="R111" s="3" t="inlineStr"/>
-      <c r="S111" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S111" s="3" t="inlineStr"/>
       <c r="T111" s="3" t="inlineStr"/>
       <c r="U111" s="3" t="inlineStr">
         <is>
@@ -7710,32 +7722,28 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr"/>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H112" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr"/>
       <c r="I112" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7750,12 +7758,13 @@
       <c r="P112" s="3" t="inlineStr"/>
       <c r="Q112" s="3" t="inlineStr"/>
       <c r="R112" s="3" t="inlineStr"/>
-      <c r="S112" s="3" t="inlineStr"/>
-      <c r="T112" s="3" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="S112" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="T112" s="3" t="inlineStr"/>
       <c r="U112" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7764,7 +7773,7 @@
       <c r="V112" s="3" t="inlineStr"/>
       <c r="W112" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X112" s="3" t="inlineStr">
@@ -7778,34 +7787,30 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr"/>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
@@ -7819,15 +7824,15 @@
       <c r="M113" s="3" t="inlineStr"/>
       <c r="N113" s="3" t="inlineStr"/>
       <c r="O113" s="3" t="inlineStr"/>
-      <c r="P113" s="3" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P113" s="3" t="inlineStr"/>
       <c r="Q113" s="3" t="inlineStr"/>
       <c r="R113" s="3" t="inlineStr"/>
       <c r="S113" s="3" t="inlineStr"/>
-      <c r="T113" s="3" t="inlineStr"/>
+      <c r="T113" s="3" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7836,7 +7841,7 @@
       <c r="V113" s="3" t="inlineStr"/>
       <c r="W113" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X113" s="3" t="inlineStr">
@@ -7850,28 +7855,36 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr"/>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H114" s="3" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I114" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7883,7 +7896,11 @@
       <c r="M114" s="3" t="inlineStr"/>
       <c r="N114" s="3" t="inlineStr"/>
       <c r="O114" s="3" t="inlineStr"/>
-      <c r="P114" s="3" t="inlineStr"/>
+      <c r="P114" s="3" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q114" s="3" t="inlineStr"/>
       <c r="R114" s="3" t="inlineStr"/>
       <c r="S114" s="3" t="inlineStr"/>
@@ -7896,7 +7913,7 @@
       <c r="V114" s="3" t="inlineStr"/>
       <c r="W114" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X114" s="3" t="inlineStr">
@@ -7910,25 +7927,25 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr"/>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr"/>
@@ -7970,25 +7987,25 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr"/>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr"/>
@@ -8030,18 +8047,18 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr"/>
@@ -8090,18 +8107,18 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr"/>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr"/>
@@ -8150,25 +8167,25 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr"/>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H119" s="3" t="inlineStr"/>
@@ -8210,25 +8227,25 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr"/>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H120" s="3" t="inlineStr"/>
@@ -8270,18 +8287,18 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr"/>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
@@ -8330,18 +8347,18 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
@@ -8390,18 +8407,18 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
@@ -8450,25 +8467,25 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr"/>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H124" s="3" t="inlineStr"/>
@@ -8496,7 +8513,7 @@
       <c r="V124" s="3" t="inlineStr"/>
       <c r="W124" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X124" s="3" t="inlineStr">
@@ -8510,25 +8527,25 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr"/>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr"/>
@@ -8570,29 +8587,25 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>reclining</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr"/>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H126" s="3" t="inlineStr"/>
@@ -8610,11 +8623,7 @@
       <c r="P126" s="3" t="inlineStr"/>
       <c r="Q126" s="3" t="inlineStr"/>
       <c r="R126" s="3" t="inlineStr"/>
-      <c r="S126" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="S126" s="3" t="inlineStr"/>
       <c r="T126" s="3" t="inlineStr"/>
       <c r="U126" s="3" t="inlineStr">
         <is>
@@ -8624,7 +8633,7 @@
       <c r="V126" s="3" t="inlineStr"/>
       <c r="W126" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X126" s="3" t="inlineStr">
@@ -8638,25 +8647,29 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr"/>
@@ -8676,14 +8689,10 @@
       <c r="R127" s="3" t="inlineStr"/>
       <c r="S127" s="3" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T127" s="3" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="T127" s="3" t="inlineStr"/>
       <c r="U127" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8692,7 +8701,7 @@
       <c r="V127" s="3" t="inlineStr"/>
       <c r="W127" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X127" s="3" t="inlineStr">
@@ -8706,25 +8715,25 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr"/>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr"/>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr"/>
@@ -8742,8 +8751,16 @@
       <c r="P128" s="3" t="inlineStr"/>
       <c r="Q128" s="3" t="inlineStr"/>
       <c r="R128" s="3" t="inlineStr"/>
-      <c r="S128" s="3" t="inlineStr"/>
-      <c r="T128" s="3" t="inlineStr"/>
+      <c r="S128" s="3" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T128" s="3" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U128" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8752,7 +8769,7 @@
       <c r="V128" s="3" t="inlineStr"/>
       <c r="W128" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X128" s="3" t="inlineStr">
@@ -8766,25 +8783,25 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr"/>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H129" s="3" t="inlineStr"/>
@@ -8802,11 +8819,7 @@
       <c r="P129" s="3" t="inlineStr"/>
       <c r="Q129" s="3" t="inlineStr"/>
       <c r="R129" s="3" t="inlineStr"/>
-      <c r="S129" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S129" s="3" t="inlineStr"/>
       <c r="T129" s="3" t="inlineStr"/>
       <c r="U129" s="3" t="inlineStr">
         <is>
@@ -8830,25 +8843,25 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H130" s="3" t="inlineStr"/>
@@ -8868,14 +8881,10 @@
       <c r="R130" s="3" t="inlineStr"/>
       <c r="S130" s="3" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T130" s="3" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T130" s="3" t="inlineStr"/>
       <c r="U130" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8884,7 +8893,7 @@
       <c r="V130" s="3" t="inlineStr"/>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X130" s="3" t="inlineStr">
@@ -8898,25 +8907,25 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr"/>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr"/>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H131" s="3" t="inlineStr"/>
@@ -8934,8 +8943,16 @@
       <c r="P131" s="3" t="inlineStr"/>
       <c r="Q131" s="3" t="inlineStr"/>
       <c r="R131" s="3" t="inlineStr"/>
-      <c r="S131" s="3" t="inlineStr"/>
-      <c r="T131" s="3" t="inlineStr"/>
+      <c r="S131" s="3" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T131" s="3" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8944,7 +8961,7 @@
       <c r="V131" s="3" t="inlineStr"/>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr">
@@ -8958,32 +8975,28 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr"/>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H132" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H132" s="3" t="inlineStr"/>
       <c r="I132" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8998,16 +9011,8 @@
       <c r="P132" s="3" t="inlineStr"/>
       <c r="Q132" s="3" t="inlineStr"/>
       <c r="R132" s="3" t="inlineStr"/>
-      <c r="S132" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S132" s="3" t="inlineStr"/>
+      <c r="T132" s="3" t="inlineStr"/>
       <c r="U132" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9016,7 +9021,7 @@
       <c r="V132" s="3" t="inlineStr"/>
       <c r="W132" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X132" s="3" t="inlineStr">
@@ -9030,28 +9035,32 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A life function-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr"/>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H133" s="3" t="inlineStr"/>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="H133" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I133" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9066,8 +9075,16 @@
       <c r="P133" s="3" t="inlineStr"/>
       <c r="Q133" s="3" t="inlineStr"/>
       <c r="R133" s="3" t="inlineStr"/>
-      <c r="S133" s="3" t="inlineStr"/>
-      <c r="T133" s="3" t="inlineStr"/>
+      <c r="S133" s="3" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T133" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9076,7 +9093,7 @@
       <c r="V133" s="3" t="inlineStr"/>
       <c r="W133" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X133" s="3" t="inlineStr">
@@ -9090,25 +9107,25 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr"/>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr"/>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H134" s="3" t="inlineStr"/>
@@ -9127,11 +9144,7 @@
       <c r="Q134" s="3" t="inlineStr"/>
       <c r="R134" s="3" t="inlineStr"/>
       <c r="S134" s="3" t="inlineStr"/>
-      <c r="T134" s="3" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T134" s="3" t="inlineStr"/>
       <c r="U134" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9140,7 +9153,7 @@
       <c r="V134" s="3" t="inlineStr"/>
       <c r="W134" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X134" s="3" t="inlineStr">
@@ -9154,25 +9167,25 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr"/>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr"/>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr"/>
@@ -9191,7 +9204,11 @@
       <c r="Q135" s="3" t="inlineStr"/>
       <c r="R135" s="3" t="inlineStr"/>
       <c r="S135" s="3" t="inlineStr"/>
-      <c r="T135" s="3" t="inlineStr"/>
+      <c r="T135" s="3" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9200,7 +9217,7 @@
       <c r="V135" s="3" t="inlineStr"/>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X135" s="3" t="inlineStr">
@@ -9214,32 +9231,28 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H136" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H136" s="3" t="inlineStr"/>
       <c r="I136" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9254,17 +9267,8 @@
       <c r="P136" s="3" t="inlineStr"/>
       <c r="Q136" s="3" t="inlineStr"/>
       <c r="R136" s="3" t="inlineStr"/>
-      <c r="S136" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T136" s="3" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S136" s="3" t="inlineStr"/>
+      <c r="T136" s="3" t="inlineStr"/>
       <c r="U136" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9273,7 +9277,7 @@
       <c r="V136" s="3" t="inlineStr"/>
       <c r="W136" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X136" s="3" t="inlineStr">
@@ -9287,28 +9291,32 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H137" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H137" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I137" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9323,8 +9331,17 @@
       <c r="P137" s="3" t="inlineStr"/>
       <c r="Q137" s="3" t="inlineStr"/>
       <c r="R137" s="3" t="inlineStr"/>
-      <c r="S137" s="3" t="inlineStr"/>
-      <c r="T137" s="3" t="inlineStr"/>
+      <c r="S137" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T137" s="3" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9333,7 +9350,7 @@
       <c r="V137" s="3" t="inlineStr"/>
       <c r="W137" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X137" s="3" t="inlineStr">
@@ -9347,25 +9364,25 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr"/>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr"/>
@@ -9407,25 +9424,25 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr"/>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr"/>
@@ -9453,7 +9470,7 @@
       <c r="V139" s="3" t="inlineStr"/>
       <c r="W139" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X139" s="3" t="inlineStr">
@@ -9467,25 +9484,25 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr"/>
@@ -9504,11 +9521,7 @@
       <c r="Q140" s="3" t="inlineStr"/>
       <c r="R140" s="3" t="inlineStr"/>
       <c r="S140" s="3" t="inlineStr"/>
-      <c r="T140" s="3" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T140" s="3" t="inlineStr"/>
       <c r="U140" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9517,7 +9530,7 @@
       <c r="V140" s="3" t="inlineStr"/>
       <c r="W140" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X140" s="3" t="inlineStr">
@@ -9531,25 +9544,25 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr"/>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H141" s="3" t="inlineStr"/>
@@ -9568,7 +9581,11 @@
       <c r="Q141" s="3" t="inlineStr"/>
       <c r="R141" s="3" t="inlineStr"/>
       <c r="S141" s="3" t="inlineStr"/>
-      <c r="T141" s="3" t="inlineStr"/>
+      <c r="T141" s="3" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U141" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9577,7 +9594,7 @@
       <c r="V141" s="3" t="inlineStr"/>
       <c r="W141" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X141" s="3" t="inlineStr">
@@ -9591,32 +9608,28 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr"/>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr"/>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H142" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H142" s="3" t="inlineStr"/>
       <c r="I142" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9629,17 +9642,9 @@
       <c r="N142" s="3" t="inlineStr"/>
       <c r="O142" s="3" t="inlineStr"/>
       <c r="P142" s="3" t="inlineStr"/>
-      <c r="Q142" s="3" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q142" s="3" t="inlineStr"/>
       <c r="R142" s="3" t="inlineStr"/>
-      <c r="S142" s="3" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S142" s="3" t="inlineStr"/>
       <c r="T142" s="3" t="inlineStr"/>
       <c r="U142" s="3" t="inlineStr">
         <is>
@@ -9649,7 +9654,7 @@
       <c r="V142" s="3" t="inlineStr"/>
       <c r="W142" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X142" s="3" t="inlineStr">
@@ -9663,28 +9668,32 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr"/>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr"/>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H143" s="3" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H143" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I143" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9697,9 +9706,17 @@
       <c r="N143" s="3" t="inlineStr"/>
       <c r="O143" s="3" t="inlineStr"/>
       <c r="P143" s="3" t="inlineStr"/>
-      <c r="Q143" s="3" t="inlineStr"/>
+      <c r="Q143" s="3" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R143" s="3" t="inlineStr"/>
-      <c r="S143" s="3" t="inlineStr"/>
+      <c r="S143" s="3" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T143" s="3" t="inlineStr"/>
       <c r="U143" s="3" t="inlineStr">
         <is>
@@ -9709,7 +9726,7 @@
       <c r="V143" s="3" t="inlineStr"/>
       <c r="W143" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X143" s="3" t="inlineStr">
@@ -9723,25 +9740,25 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr"/>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr"/>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H144" s="3" t="inlineStr"/>
@@ -9759,11 +9776,7 @@
       <c r="P144" s="3" t="inlineStr"/>
       <c r="Q144" s="3" t="inlineStr"/>
       <c r="R144" s="3" t="inlineStr"/>
-      <c r="S144" s="3" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S144" s="3" t="inlineStr"/>
       <c r="T144" s="3" t="inlineStr"/>
       <c r="U144" s="3" t="inlineStr">
         <is>
@@ -9773,7 +9786,7 @@
       <c r="V144" s="3" t="inlineStr"/>
       <c r="W144" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X144" s="3" t="inlineStr">
@@ -9787,32 +9800,28 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr"/>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr"/>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H145" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H145" s="3" t="inlineStr"/>
       <c r="I145" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9825,13 +9834,13 @@
       <c r="N145" s="3" t="inlineStr"/>
       <c r="O145" s="3" t="inlineStr"/>
       <c r="P145" s="3" t="inlineStr"/>
-      <c r="Q145" s="3" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q145" s="3" t="inlineStr"/>
       <c r="R145" s="3" t="inlineStr"/>
-      <c r="S145" s="3" t="inlineStr"/>
+      <c r="S145" s="3" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T145" s="3" t="inlineStr"/>
       <c r="U145" s="3" t="inlineStr">
         <is>
@@ -9841,7 +9850,7 @@
       <c r="V145" s="3" t="inlineStr"/>
       <c r="W145" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X145" s="3" t="inlineStr">
@@ -9855,25 +9864,25 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr"/>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr"/>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H146" s="3" t="inlineStr">
@@ -9893,7 +9902,11 @@
       <c r="N146" s="3" t="inlineStr"/>
       <c r="O146" s="3" t="inlineStr"/>
       <c r="P146" s="3" t="inlineStr"/>
-      <c r="Q146" s="3" t="inlineStr"/>
+      <c r="Q146" s="3" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R146" s="3" t="inlineStr"/>
       <c r="S146" s="3" t="inlineStr"/>
       <c r="T146" s="3" t="inlineStr"/>
@@ -9919,25 +9932,25 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr"/>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr"/>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H147" s="3" t="inlineStr">
@@ -9969,7 +9982,7 @@
       <c r="V147" s="3" t="inlineStr"/>
       <c r="W147" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X147" s="3" t="inlineStr">
@@ -9983,25 +9996,25 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr"/>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr"/>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H148" s="3" t="inlineStr">
@@ -10021,11 +10034,7 @@
       <c r="N148" s="3" t="inlineStr"/>
       <c r="O148" s="3" t="inlineStr"/>
       <c r="P148" s="3" t="inlineStr"/>
-      <c r="Q148" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q148" s="3" t="inlineStr"/>
       <c r="R148" s="3" t="inlineStr"/>
       <c r="S148" s="3" t="inlineStr"/>
       <c r="T148" s="3" t="inlineStr"/>
@@ -10037,7 +10046,7 @@
       <c r="V148" s="3" t="inlineStr"/>
       <c r="W148" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X148" s="3" t="inlineStr">
@@ -10051,25 +10060,25 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr"/>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr"/>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H149" s="3" t="inlineStr">
@@ -10105,7 +10114,7 @@
       <c r="V149" s="3" t="inlineStr"/>
       <c r="W149" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X149" s="3" t="inlineStr">
@@ -10119,29 +10128,25 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr"/>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H150" s="3" t="inlineStr">
@@ -10161,14 +10166,13 @@
       <c r="N150" s="3" t="inlineStr"/>
       <c r="O150" s="3" t="inlineStr"/>
       <c r="P150" s="3" t="inlineStr"/>
-      <c r="Q150" s="3" t="inlineStr"/>
+      <c r="Q150" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R150" s="3" t="inlineStr"/>
-      <c r="S150" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S150" s="3" t="inlineStr"/>
       <c r="T150" s="3" t="inlineStr"/>
       <c r="U150" s="3" t="inlineStr">
         <is>
@@ -10178,7 +10182,7 @@
       <c r="V150" s="3" t="inlineStr"/>
       <c r="W150" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X150" s="3" t="inlineStr">
@@ -10192,28 +10196,36 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr"/>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H151" s="3" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I151" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10228,12 +10240,13 @@
       <c r="P151" s="3" t="inlineStr"/>
       <c r="Q151" s="3" t="inlineStr"/>
       <c r="R151" s="3" t="inlineStr"/>
-      <c r="S151" s="3" t="inlineStr"/>
-      <c r="T151" s="3" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S151" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T151" s="3" t="inlineStr"/>
       <c r="U151" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10242,7 +10255,7 @@
       <c r="V151" s="3" t="inlineStr"/>
       <c r="W151" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X151" s="3" t="inlineStr">
@@ -10256,25 +10269,25 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr"/>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr"/>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H152" s="3" t="inlineStr"/>
@@ -10293,7 +10306,11 @@
       <c r="Q152" s="3" t="inlineStr"/>
       <c r="R152" s="3" t="inlineStr"/>
       <c r="S152" s="3" t="inlineStr"/>
-      <c r="T152" s="3" t="inlineStr"/>
+      <c r="T152" s="3" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U152" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10302,7 +10319,7 @@
       <c r="V152" s="3" t="inlineStr"/>
       <c r="W152" s="3" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X152" s="3" t="inlineStr">
@@ -10316,25 +10333,25 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr"/>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr"/>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H153" s="3" t="inlineStr"/>
@@ -10352,12 +10369,7 @@
       <c r="P153" s="3" t="inlineStr"/>
       <c r="Q153" s="3" t="inlineStr"/>
       <c r="R153" s="3" t="inlineStr"/>
-      <c r="S153" s="3" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S153" s="3" t="inlineStr"/>
       <c r="T153" s="3" t="inlineStr"/>
       <c r="U153" s="3" t="inlineStr">
         <is>
@@ -10367,7 +10379,7 @@
       <c r="V153" s="3" t="inlineStr"/>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X153" s="3" t="inlineStr">
@@ -10381,25 +10393,25 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr"/>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H154" s="3" t="inlineStr"/>
@@ -10419,7 +10431,8 @@
       <c r="R154" s="3" t="inlineStr"/>
       <c r="S154" s="3" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T154" s="3" t="inlineStr"/>
@@ -10431,7 +10444,7 @@
       <c r="V154" s="3" t="inlineStr"/>
       <c r="W154" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X154" s="3" t="inlineStr">
@@ -10445,36 +10458,28 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr"/>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr"/>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H155" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H155" s="3" t="inlineStr"/>
       <c r="I155" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10486,19 +10491,14 @@
       <c r="M155" s="3" t="inlineStr"/>
       <c r="N155" s="3" t="inlineStr"/>
       <c r="O155" s="3" t="inlineStr"/>
-      <c r="P155" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="P155" s="3" t="inlineStr"/>
       <c r="Q155" s="3" t="inlineStr"/>
       <c r="R155" s="3" t="inlineStr"/>
-      <c r="S155" s="3" t="inlineStr"/>
+      <c r="S155" s="3" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
       <c r="T155" s="3" t="inlineStr"/>
       <c r="U155" s="3" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
       <c r="V155" s="3" t="inlineStr"/>
       <c r="W155" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X155" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1461,177 +1461,172 @@
       <c r="Z15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050267</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr"/>
-      <c r="R16" s="3" t="inlineStr"/>
-      <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr"/>
-      <c r="U16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V16" s="3" t="inlineStr"/>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH; NB</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y16" s="3" t="inlineStr"/>
-      <c r="Z16" s="3" t="inlineStr"/>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>A time point when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A time point when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr"/>
-      <c r="W17" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y17" s="2" t="inlineStr"/>
-      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A process attribute of an individual human behaviour. </t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="R17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr"/>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>physical performance behaviour has_behavioural_attribute behavioural attribute</t>
+        </is>
+      </c>
+      <c r="U17" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="inlineStr"/>
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y17" s="3" t="inlineStr"/>
+      <c r="Z17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
+          <t>BCIO:050416</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>behavioural disposition</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour.</t>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process attribute of an individual human behaviour. </t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -1651,7 +1646,7 @@
       <c r="S18" s="3" t="inlineStr"/>
       <c r="T18" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour has_behavioural_attribute behavioural attribute</t>
+          <t>A person has a behaviour disposition to realise consumption behaviour</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
@@ -1662,183 +1657,179 @@
       <c r="V18" s="3" t="inlineStr"/>
       <c r="W18" s="3" t="inlineStr">
         <is>
+          <t>RW; JH; PS</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y18" s="3" t="inlineStr"/>
+      <c r="Z18" s="3" t="inlineStr">
+        <is>
+          <t>PS - We might need to discuss this entity - not included in the annotations, but sensible to sit here. Is this entity included in AddictO?</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050430</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr"/>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="inlineStr"/>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr"/>
+      <c r="O20" s="3" t="inlineStr"/>
+      <c r="P20" s="3" t="inlineStr"/>
+      <c r="Q20" s="3" t="inlineStr"/>
+      <c r="R20" s="3" t="inlineStr"/>
+      <c r="S20" s="3" t="inlineStr"/>
+      <c r="T20" s="3" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour has_behavioural_attribute tip up tongue placement</t>
+        </is>
+      </c>
+      <c r="U20" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" s="3" t="inlineStr"/>
+      <c r="W20" s="3" t="inlineStr">
+        <is>
           <t>PS; RW</t>
         </is>
       </c>
-      <c r="X18" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y18" s="3" t="inlineStr"/>
-      <c r="Z18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr"/>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr"/>
-      <c r="T19" s="3" t="inlineStr">
-        <is>
-          <t>A person has a behaviour disposition to realise consumption behaviour</t>
-        </is>
-      </c>
-      <c r="U19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" s="3" t="inlineStr"/>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH; PS</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y19" s="3" t="inlineStr"/>
-      <c r="Z19" s="3" t="inlineStr">
-        <is>
-          <t>PS - We might need to discuss this entity - not included in the annotations, but sensible to sit here. Is this entity included in AddictO?</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="X20" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y20" s="3" t="inlineStr"/>
+      <c r="Z20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:050428</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>behavioural form</t>
+          <t>behavioural frequency</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr"/>
@@ -1859,7 +1850,7 @@
       <c r="S21" s="3" t="inlineStr"/>
       <c r="T21" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour has_behavioural_attribute tip up tongue placement</t>
+          <t>walking three times a week</t>
         </is>
       </c>
       <c r="U21" s="3" t="inlineStr">
@@ -1870,7 +1861,7 @@
       <c r="V21" s="3" t="inlineStr"/>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="X21" s="3" t="inlineStr">
@@ -1884,29 +1875,25 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr"/>
@@ -1927,7 +1914,7 @@
       <c r="S22" s="3" t="inlineStr"/>
       <c r="T22" s="3" t="inlineStr">
         <is>
-          <t>walking three times a week</t>
+          <t>Showering, bathing, makeup removing</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
@@ -1938,7 +1925,7 @@
       <c r="V22" s="3" t="inlineStr"/>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t>PS; JH; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
@@ -1952,25 +1939,25 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
+          <t>breathing behaviour</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr"/>
@@ -1991,7 +1978,7 @@
       <c r="S23" s="3" t="inlineStr"/>
       <c r="T23" s="3" t="inlineStr">
         <is>
-          <t>Showering, bathing, makeup removing</t>
+          <t>Inhaling, exhaling</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
@@ -2002,7 +1989,7 @@
       <c r="V23" s="3" t="inlineStr"/>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X23" s="3" t="inlineStr">
@@ -2016,25 +2003,25 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>breathing behaviour</t>
+          <t xml:space="preserve">bullying behaviour </t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t xml:space="preserve">harassment behaviour </t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr"/>
@@ -2052,10 +2039,14 @@
       <c r="P24" s="3" t="inlineStr"/>
       <c r="Q24" s="3" t="inlineStr"/>
       <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+        </is>
+      </c>
       <c r="T24" s="3" t="inlineStr">
         <is>
-          <t>Inhaling, exhaling</t>
+          <t>Cyberbullying</t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
@@ -2066,7 +2057,7 @@
       <c r="V24" s="3" t="inlineStr"/>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
@@ -2075,30 +2066,34 @@
         </is>
       </c>
       <c r="Y24" s="3" t="inlineStr"/>
-      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="Z24" s="3" t="inlineStr">
+        <is>
+          <t>From Britannica https://www.britannica.com/topic/bullying. Intentional harm-doing or harassment that is directed toward vulnerable targets and typically repeated. Bullying encompasses a wide range of malicious aggressive behaviours, including physical violence, verbal mockery, threats, ostracism, and rumours spread either orally or by other means of communication, such as the Internet.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bullying behaviour </t>
+          <t xml:space="preserve">care-giving behaviour </t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harassment behaviour </t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr"/>
@@ -2116,14 +2111,10 @@
       <c r="P25" s="3" t="inlineStr"/>
       <c r="Q25" s="3" t="inlineStr"/>
       <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
-        </is>
-      </c>
+      <c r="S25" s="3" t="inlineStr"/>
       <c r="T25" s="3" t="inlineStr">
         <is>
-          <t>Cyberbullying</t>
+          <t>Breast feeding, Nappy changing, Feeding, Nursing behaviour, Provide care</t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
@@ -2143,37 +2134,37 @@
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr"/>
-      <c r="Z25" s="3" t="inlineStr">
-        <is>
-          <t>From Britannica https://www.britannica.com/topic/bullying. Intentional harm-doing or harassment that is directed toward vulnerable targets and typically repeated. Bullying encompasses a wide range of malicious aggressive behaviours, including physical violence, verbal mockery, threats, ostracism, and rumours spread either orally or by other means of communication, such as the Internet.</t>
-        </is>
-      </c>
+      <c r="Z25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">care-giving behaviour </t>
+          <t>cigarette smoking behaviour</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr"/>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2189,11 +2180,7 @@
       <c r="Q26" s="3" t="inlineStr"/>
       <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr">
-        <is>
-          <t>Breast feeding, Nappy changing, Feeding, Nursing behaviour, Provide care</t>
-        </is>
-      </c>
+      <c r="T26" s="3" t="inlineStr"/>
       <c r="U26" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2202,7 +2189,7 @@
       <c r="V26" s="3" t="inlineStr"/>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
@@ -2216,25 +2203,26 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t xml:space="preserve">BCIO:036106
+</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking behaviour</t>
+          <t>cigarette smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
@@ -2280,26 +2268,25 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCIO:036106
-</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking behaviour pattern</t>
+          <t>cigarette smoking cessation</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -2331,7 +2318,7 @@
       <c r="V28" s="3" t="inlineStr"/>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -2345,32 +2332,32 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr"/>
       <c r="I29" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2386,7 +2373,11 @@
       <c r="Q29" s="3" t="inlineStr"/>
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr"/>
-      <c r="T29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doing mathematics homework has high cognitive exertion expended on a behaviour </t>
+        </is>
+      </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2395,7 +2386,7 @@
       <c r="V29" s="3" t="inlineStr"/>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X29" s="3" t="inlineStr">
@@ -2409,32 +2400,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>An object-using behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr"/>
+          <t xml:space="preserve">object-using behaviour </t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2450,11 +2441,7 @@
       <c r="Q30" s="3" t="inlineStr"/>
       <c r="R30" s="3" t="inlineStr"/>
       <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doing mathematics homework has high cognitive exertion expended on a behaviour </t>
-        </is>
-      </c>
+      <c r="T30" s="3" t="inlineStr"/>
       <c r="U30" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2463,7 +2450,7 @@
       <c r="V30" s="3" t="inlineStr"/>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
@@ -2477,25 +2464,25 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves ingesting material into the body.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
@@ -2527,7 +2514,7 @@
       <c r="V31" s="3" t="inlineStr"/>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
@@ -2541,25 +2528,25 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t xml:space="preserve">creative expressive behaviour   </t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>An experience-related behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -2581,8 +2568,16 @@
       <c r="P32" s="3" t="inlineStr"/>
       <c r="Q32" s="3" t="inlineStr"/>
       <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+      <c r="T32" s="3" t="inlineStr">
+        <is>
+          <t>Expressive dancing, Singing, Playing Music</t>
+        </is>
+      </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2591,7 +2586,7 @@
       <c r="V32" s="3" t="inlineStr"/>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr">
@@ -2605,32 +2600,28 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">creative expressive behaviour   </t>
+          <t xml:space="preserve">dental hygiene behaviour </t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr"/>
       <c r="I33" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -2645,14 +2636,10 @@
       <c r="P33" s="3" t="inlineStr"/>
       <c r="Q33" s="3" t="inlineStr"/>
       <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
-        </is>
-      </c>
+      <c r="S33" s="3" t="inlineStr"/>
       <c r="T33" s="3" t="inlineStr">
         <is>
-          <t>Expressive dancing, Singing, Playing Music</t>
+          <t>Tooth-brushing, flossing, using mouthwash</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
@@ -2663,7 +2650,7 @@
       <c r="V33" s="3" t="inlineStr"/>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X33" s="3" t="inlineStr">
@@ -2677,25 +2664,25 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">dental hygiene behaviour </t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr"/>
@@ -2713,12 +2700,12 @@
       <c r="P34" s="3" t="inlineStr"/>
       <c r="Q34" s="3" t="inlineStr"/>
       <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr">
-        <is>
-          <t>Tooth-brushing, flossing, using mouthwash</t>
-        </is>
-      </c>
+      <c r="S34" s="3" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
+      <c r="T34" s="3" t="inlineStr"/>
       <c r="U34" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2741,25 +2728,25 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>diagnostic healthcare behaviour</t>
+          <t xml:space="preserve">digital interaction behaviour </t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr"/>
@@ -2777,11 +2764,7 @@
       <c r="P35" s="3" t="inlineStr"/>
       <c r="Q35" s="3" t="inlineStr"/>
       <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
-        </is>
-      </c>
+      <c r="S35" s="3" t="inlineStr"/>
       <c r="T35" s="3" t="inlineStr"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -2805,25 +2788,25 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">digital interaction behaviour </t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr"/>
@@ -2839,7 +2822,11 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
+        </is>
+      </c>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr"/>
       <c r="T36" s="3" t="inlineStr"/>
@@ -2865,25 +2852,25 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr"/>
@@ -2899,11 +2886,7 @@
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
-        </is>
-      </c>
+      <c r="Q37" s="3" t="inlineStr"/>
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr"/>
       <c r="T37" s="3" t="inlineStr"/>
@@ -2929,25 +2912,25 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr"/>
@@ -2989,25 +2972,25 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>e-cigarette use</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
+          <t>Inhaling consumption that that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>electronic vaping device use</t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr"/>
@@ -3025,7 +3008,11 @@
       <c r="P39" s="3" t="inlineStr"/>
       <c r="Q39" s="3" t="inlineStr"/>
       <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+        </is>
+      </c>
       <c r="T39" s="3" t="inlineStr"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3049,25 +3036,25 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>e-cigarette use</t>
+          <t>eating</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
@@ -3085,11 +3072,7 @@
       <c r="P40" s="3" t="inlineStr"/>
       <c r="Q40" s="3" t="inlineStr"/>
       <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
-        </is>
-      </c>
+      <c r="S40" s="3" t="inlineStr"/>
       <c r="T40" s="3" t="inlineStr"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -3113,28 +3096,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3149,8 +3136,17 @@
       <c r="P41" s="3" t="inlineStr"/>
       <c r="Q41" s="3" t="inlineStr"/>
       <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+        </is>
+      </c>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
+        </is>
+      </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3159,7 +3155,7 @@
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr">
@@ -3173,32 +3169,28 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>electronic vaping device use</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr"/>
       <c r="I42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3213,17 +3205,8 @@
       <c r="P42" s="3" t="inlineStr"/>
       <c r="Q42" s="3" t="inlineStr"/>
       <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
-        </is>
-      </c>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
       <c r="U42" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3232,7 +3215,7 @@
       <c r="V42" s="3" t="inlineStr"/>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr">
@@ -3246,25 +3229,29 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+        </is>
+      </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
@@ -3283,7 +3270,11 @@
       <c r="Q43" s="3" t="inlineStr"/>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3292,7 +3283,7 @@
       <c r="V43" s="3" t="inlineStr"/>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr">
@@ -3306,29 +3297,25 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
-        </is>
-      </c>
+          <t>employment behaviour</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr"/>
@@ -3346,10 +3333,14 @@
       <c r="P44" s="3" t="inlineStr"/>
       <c r="Q44" s="3" t="inlineStr"/>
       <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+        </is>
+      </c>
       <c r="T44" s="3" t="inlineStr">
         <is>
-          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
+          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
@@ -3360,7 +3351,7 @@
       <c r="V44" s="3" t="inlineStr"/>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; JH; PS</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr">
@@ -3374,25 +3365,25 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>enjoyment behaviour</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H45" s="3" t="inlineStr"/>
@@ -3410,14 +3401,10 @@
       <c r="P45" s="3" t="inlineStr"/>
       <c r="Q45" s="3" t="inlineStr"/>
       <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
-        </is>
-      </c>
+      <c r="S45" s="3" t="inlineStr"/>
       <c r="T45" s="3" t="inlineStr">
         <is>
-          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
+          <t>Playing</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
@@ -3428,7 +3415,7 @@
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X45" s="3" t="inlineStr">
@@ -3442,28 +3429,36 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3478,10 +3473,14 @@
       <c r="P46" s="3" t="inlineStr"/>
       <c r="Q46" s="3" t="inlineStr"/>
       <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
       <c r="T46" s="3" t="inlineStr">
         <is>
-          <t>Playing</t>
+          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
@@ -3506,36 +3505,28 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr"/>
       <c r="I47" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3550,14 +3541,10 @@
       <c r="P47" s="3" t="inlineStr"/>
       <c r="Q47" s="3" t="inlineStr"/>
       <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
-        </is>
-      </c>
+      <c r="S47" s="3" t="inlineStr"/>
       <c r="T47" s="3" t="inlineStr">
         <is>
-          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
+          <t>Urinating, Defecating, Induced vomiting</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
@@ -3568,7 +3555,7 @@
       <c r="V47" s="3" t="inlineStr"/>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X47" s="3" t="inlineStr">
@@ -3582,25 +3569,25 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr"/>
@@ -3619,11 +3606,7 @@
       <c r="Q48" s="3" t="inlineStr"/>
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr">
-        <is>
-          <t>Urinating, Defecating, Induced vomiting</t>
-        </is>
-      </c>
+      <c r="T48" s="3" t="inlineStr"/>
       <c r="U48" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3632,7 +3615,7 @@
       <c r="V48" s="3" t="inlineStr"/>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X48" s="3" t="inlineStr">
@@ -3644,151 +3627,151 @@
       <c r="Z48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050443</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="inlineStr"/>
-      <c r="R49" s="3" t="inlineStr"/>
-      <c r="S49" s="3" t="inlineStr"/>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" s="3" t="inlineStr"/>
-      <c r="W49" s="3" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="X49" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y49" s="3" t="inlineStr"/>
-      <c r="Z49" s="3" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050369</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V50" s="3" t="inlineStr"/>
+      <c r="W50" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X50" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y50" s="3" t="inlineStr"/>
+      <c r="Z50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr"/>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="H51" s="3" t="inlineStr"/>
@@ -3807,7 +3790,11 @@
       <c r="Q51" s="3" t="inlineStr"/>
       <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr"/>
-      <c r="T51" s="3" t="inlineStr"/>
+      <c r="T51" s="3" t="inlineStr">
+        <is>
+          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
+        </is>
+      </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3816,7 +3803,7 @@
       <c r="V51" s="3" t="inlineStr"/>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X51" s="3" t="inlineStr">
@@ -3830,25 +3817,25 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr"/>
@@ -3869,7 +3856,7 @@
       <c r="S52" s="3" t="inlineStr"/>
       <c r="T52" s="3" t="inlineStr">
         <is>
-          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
+          <t>Vandalism, Sabotaging, Polluting</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
@@ -3894,25 +3881,25 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr"/>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr"/>
@@ -3930,10 +3917,15 @@
       <c r="P53" s="3" t="inlineStr"/>
       <c r="Q53" s="3" t="inlineStr"/>
       <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
       <c r="T53" s="3" t="inlineStr">
         <is>
-          <t>Vandalism, Sabotaging, Polluting</t>
+          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
@@ -3944,7 +3936,7 @@
       <c r="V53" s="3" t="inlineStr"/>
       <c r="W53" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X53" s="3" t="inlineStr">
@@ -3958,25 +3950,25 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr"/>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr"/>
@@ -3994,17 +3986,8 @@
       <c r="P54" s="3" t="inlineStr"/>
       <c r="Q54" s="3" t="inlineStr"/>
       <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
-        </is>
-      </c>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
       <c r="U54" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4013,7 +3996,7 @@
       <c r="V54" s="3" t="inlineStr"/>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X54" s="3" t="inlineStr">
@@ -4027,25 +4010,25 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t>An inter-personal behaviour that involves the transmission of information.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
@@ -4064,7 +4047,11 @@
       <c r="Q55" s="3" t="inlineStr"/>
       <c r="R55" s="3" t="inlineStr"/>
       <c r="S55" s="3" t="inlineStr"/>
-      <c r="T55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr">
+        <is>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
+        </is>
+      </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4073,7 +4060,7 @@
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X55" s="3" t="inlineStr">
@@ -4087,25 +4074,25 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>human life function</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves the transmission of information.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr"/>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t xml:space="preserve">function </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -4123,10 +4110,15 @@
       <c r="P56" s="3" t="inlineStr"/>
       <c r="Q56" s="3" t="inlineStr"/>
       <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
       <c r="T56" s="3" t="inlineStr">
         <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
@@ -4137,7 +4129,7 @@
       <c r="V56" s="3" t="inlineStr"/>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr">
@@ -4151,25 +4143,29 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr"/>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr"/>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
@@ -4189,15 +4185,10 @@
       <c r="R57" s="3" t="inlineStr"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr">
-        <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
-        </is>
-      </c>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr"/>
       <c r="U57" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4206,7 +4197,7 @@
       <c r="V57" s="3" t="inlineStr"/>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X57" s="3" t="inlineStr">
@@ -4220,29 +4211,25 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr"/>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr"/>
@@ -4251,7 +4238,11 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="inlineStr"/>
       <c r="M58" s="3" t="inlineStr"/>
@@ -4262,7 +4253,11 @@
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr"/>
@@ -4274,7 +4269,7 @@
       <c r="V58" s="3" t="inlineStr"/>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X58" s="3" t="inlineStr">
@@ -4283,61 +4278,75 @@
         </is>
       </c>
       <c r="Y58" s="3" t="inlineStr"/>
-      <c r="Z58" s="3" t="inlineStr"/>
+      <c r="Z58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
+o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
+</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr"/>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J59" s="3" t="inlineStr"/>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="inlineStr"/>
       <c r="M59" s="3" t="inlineStr"/>
       <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr"/>
       <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
       <c r="R59" s="3" t="inlineStr"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr"/>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="T59" s="3" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4346,7 +4355,7 @@
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr">
@@ -4355,45 +4364,39 @@
         </is>
       </c>
       <c r="Y59" s="3" t="inlineStr"/>
-      <c r="Z59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
-o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
-</t>
-        </is>
-      </c>
+      <c r="Z59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr"/>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr">
@@ -4407,87 +4410,7 @@
       <c r="M60" s="3" t="inlineStr"/>
       <c r="N60" s="3" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr"/>
-      <c r="P60" s="3" t="inlineStr"/>
-      <c r="Q60" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="R60" s="3" t="inlineStr"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr">
-        <is>
-          <t>RW; PS</t>
-        </is>
-      </c>
-      <c r="X60" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y60" s="3" t="inlineStr"/>
-      <c r="Z60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036100</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr">
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -4499,18 +4422,94 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="Q61" s="3" t="inlineStr">
+      <c r="Q60" s="3" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr">
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X60" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y60" s="3" t="inlineStr"/>
+      <c r="Z60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050207</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr"/>
       <c r="T61" s="3" t="inlineStr"/>
       <c r="U61" s="3" t="inlineStr">
         <is>
@@ -4520,7 +4519,7 @@
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X61" s="3" t="inlineStr">
@@ -4534,36 +4533,28 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr"/>
       <c r="I62" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4575,16 +4566,8 @@
       <c r="M62" s="3" t="inlineStr"/>
       <c r="N62" s="3" t="inlineStr"/>
       <c r="O62" s="3" t="inlineStr"/>
-      <c r="P62" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
       <c r="R62" s="3" t="inlineStr"/>
       <c r="S62" s="3" t="inlineStr"/>
       <c r="T62" s="3" t="inlineStr"/>
@@ -4596,7 +4579,7 @@
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X62" s="3" t="inlineStr">
@@ -4610,25 +4593,29 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr"/>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr"/>
@@ -4646,7 +4633,11 @@
       <c r="P63" s="3" t="inlineStr"/>
       <c r="Q63" s="3" t="inlineStr"/>
       <c r="R63" s="3" t="inlineStr"/>
-      <c r="S63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="T63" s="3" t="inlineStr"/>
       <c r="U63" s="3" t="inlineStr">
         <is>
@@ -4670,32 +4661,32 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr"/>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4710,11 +4701,7 @@
       <c r="P64" s="3" t="inlineStr"/>
       <c r="Q64" s="3" t="inlineStr"/>
       <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
+      <c r="S64" s="3" t="inlineStr"/>
       <c r="T64" s="3" t="inlineStr"/>
       <c r="U64" s="3" t="inlineStr">
         <is>
@@ -4724,7 +4711,7 @@
       <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X64" s="3" t="inlineStr">
@@ -4738,32 +4725,28 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr"/>
       <c r="I65" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4788,7 +4771,7 @@
       <c r="V65" s="3" t="inlineStr"/>
       <c r="W65" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X65" s="3" t="inlineStr">
@@ -4802,25 +4785,25 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr"/>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H66" s="3" t="inlineStr"/>
@@ -4848,7 +4831,7 @@
       <c r="V66" s="3" t="inlineStr"/>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="X66" s="3" t="inlineStr">
@@ -4862,25 +4845,25 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr"/>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="H67" s="3" t="inlineStr"/>
@@ -4908,7 +4891,7 @@
       <c r="V67" s="3" t="inlineStr"/>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X67" s="3" t="inlineStr">
@@ -4922,28 +4905,32 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr"/>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4959,7 +4946,11 @@
       <c r="Q68" s="3" t="inlineStr"/>
       <c r="R68" s="3" t="inlineStr"/>
       <c r="S68" s="3" t="inlineStr"/>
-      <c r="T68" s="3" t="inlineStr"/>
+      <c r="T68" s="3" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4968,7 +4959,7 @@
       <c r="V68" s="3" t="inlineStr"/>
       <c r="W68" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X68" s="3" t="inlineStr">
@@ -4982,32 +4973,28 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr"/>
       <c r="I69" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5023,11 +5010,7 @@
       <c r="Q69" s="3" t="inlineStr"/>
       <c r="R69" s="3" t="inlineStr"/>
       <c r="S69" s="3" t="inlineStr"/>
-      <c r="T69" s="3" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T69" s="3" t="inlineStr"/>
       <c r="U69" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5036,7 +5019,7 @@
       <c r="V69" s="3" t="inlineStr"/>
       <c r="W69" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X69" s="3" t="inlineStr">
@@ -5050,25 +5033,25 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H70" s="3" t="inlineStr"/>
@@ -5096,7 +5079,7 @@
       <c r="V70" s="3" t="inlineStr"/>
       <c r="W70" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X70" s="3" t="inlineStr">
@@ -5110,28 +5093,32 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I71" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5147,7 +5134,11 @@
       <c r="Q71" s="3" t="inlineStr"/>
       <c r="R71" s="3" t="inlineStr"/>
       <c r="S71" s="3" t="inlineStr"/>
-      <c r="T71" s="3" t="inlineStr"/>
+      <c r="T71" s="3" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5156,7 +5147,7 @@
       <c r="V71" s="3" t="inlineStr"/>
       <c r="W71" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X71" s="3" t="inlineStr">
@@ -5170,32 +5161,28 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr"/>
       <c r="I72" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5211,11 +5198,7 @@
       <c r="Q72" s="3" t="inlineStr"/>
       <c r="R72" s="3" t="inlineStr"/>
       <c r="S72" s="3" t="inlineStr"/>
-      <c r="T72" s="3" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T72" s="3" t="inlineStr"/>
       <c r="U72" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5224,7 +5207,7 @@
       <c r="V72" s="3" t="inlineStr"/>
       <c r="W72" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X72" s="3" t="inlineStr">
@@ -5238,25 +5221,25 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H73" s="3" t="inlineStr"/>
@@ -5284,7 +5267,7 @@
       <c r="V73" s="3" t="inlineStr"/>
       <c r="W73" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X73" s="3" t="inlineStr">
@@ -5298,25 +5281,25 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H74" s="3" t="inlineStr"/>
@@ -5335,7 +5318,11 @@
       <c r="Q74" s="3" t="inlineStr"/>
       <c r="R74" s="3" t="inlineStr"/>
       <c r="S74" s="3" t="inlineStr"/>
-      <c r="T74" s="3" t="inlineStr"/>
+      <c r="T74" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5344,7 +5331,7 @@
       <c r="V74" s="3" t="inlineStr"/>
       <c r="W74" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X74" s="3" t="inlineStr">
@@ -5358,25 +5345,25 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr"/>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H75" s="3" t="inlineStr"/>
@@ -5395,11 +5382,7 @@
       <c r="Q75" s="3" t="inlineStr"/>
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
-      <c r="T75" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T75" s="3" t="inlineStr"/>
       <c r="U75" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5408,7 +5391,7 @@
       <c r="V75" s="3" t="inlineStr"/>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X75" s="3" t="inlineStr">
@@ -5422,25 +5405,25 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H76" s="3" t="inlineStr"/>
@@ -5456,9 +5439,17 @@
       <c r="N76" s="3" t="inlineStr"/>
       <c r="O76" s="3" t="inlineStr"/>
       <c r="P76" s="3" t="inlineStr"/>
-      <c r="Q76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R76" s="3" t="inlineStr"/>
-      <c r="S76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
       <c r="T76" s="3" t="inlineStr"/>
       <c r="U76" s="3" t="inlineStr">
         <is>
@@ -5468,7 +5459,7 @@
       <c r="V76" s="3" t="inlineStr"/>
       <c r="W76" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X76" s="3" t="inlineStr">
@@ -5482,25 +5473,29 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr"/>
@@ -5516,18 +5511,14 @@
       <c r="N77" s="3" t="inlineStr"/>
       <c r="O77" s="3" t="inlineStr"/>
       <c r="P77" s="3" t="inlineStr"/>
-      <c r="Q77" s="3" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q77" s="3" t="inlineStr"/>
       <c r="R77" s="3" t="inlineStr"/>
-      <c r="S77" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="T77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr"/>
+      <c r="T77" s="3" t="inlineStr">
+        <is>
+          <t>writing has high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5536,7 +5527,7 @@
       <c r="V77" s="3" t="inlineStr"/>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr">
@@ -5550,29 +5541,25 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H78" s="3" t="inlineStr"/>
@@ -5593,7 +5580,7 @@
       <c r="S78" s="3" t="inlineStr"/>
       <c r="T78" s="3" t="inlineStr">
         <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
+          <t>Yoga, Taichi</t>
         </is>
       </c>
       <c r="U78" s="3" t="inlineStr">
@@ -5604,7 +5591,7 @@
       <c r="V78" s="3" t="inlineStr"/>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X78" s="3" t="inlineStr">
@@ -5618,25 +5605,25 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr"/>
@@ -5655,11 +5642,7 @@
       <c r="Q79" s="3" t="inlineStr"/>
       <c r="R79" s="3" t="inlineStr"/>
       <c r="S79" s="3" t="inlineStr"/>
-      <c r="T79" s="3" t="inlineStr">
-        <is>
-          <t>Yoga, Taichi</t>
-        </is>
-      </c>
+      <c r="T79" s="3" t="inlineStr"/>
       <c r="U79" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5668,7 +5651,7 @@
       <c r="V79" s="3" t="inlineStr"/>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X79" s="3" t="inlineStr">
@@ -5682,25 +5665,25 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr"/>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr"/>
@@ -5742,25 +5725,25 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr"/>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H81" s="3" t="inlineStr"/>
@@ -5788,7 +5771,7 @@
       <c r="V81" s="3" t="inlineStr"/>
       <c r="W81" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X81" s="3" t="inlineStr">
@@ -5802,18 +5785,18 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr"/>
@@ -5848,7 +5831,7 @@
       <c r="V82" s="3" t="inlineStr"/>
       <c r="W82" s="3" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X82" s="3" t="inlineStr">
@@ -5862,25 +5845,25 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr"/>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H83" s="3" t="inlineStr"/>
@@ -5898,8 +5881,16 @@
       <c r="P83" s="3" t="inlineStr"/>
       <c r="Q83" s="3" t="inlineStr"/>
       <c r="R83" s="3" t="inlineStr"/>
-      <c r="S83" s="3" t="inlineStr"/>
-      <c r="T83" s="3" t="inlineStr"/>
+      <c r="S83" s="3" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T83" s="3" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5908,7 +5899,7 @@
       <c r="V83" s="3" t="inlineStr"/>
       <c r="W83" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X83" s="3" t="inlineStr">
@@ -5922,25 +5913,25 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using vocalisations</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr"/>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H84" s="3" t="inlineStr"/>
@@ -5958,16 +5949,8 @@
       <c r="P84" s="3" t="inlineStr"/>
       <c r="Q84" s="3" t="inlineStr"/>
       <c r="R84" s="3" t="inlineStr"/>
-      <c r="S84" s="3" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T84" s="3" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S84" s="3" t="inlineStr"/>
+      <c r="T84" s="3" t="inlineStr"/>
       <c r="U84" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5976,7 +5959,7 @@
       <c r="V84" s="3" t="inlineStr"/>
       <c r="W84" s="3" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X84" s="3" t="inlineStr">
@@ -5990,25 +5973,29 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr"/>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H85" s="3" t="inlineStr"/>
@@ -6027,7 +6014,11 @@
       <c r="Q85" s="3" t="inlineStr"/>
       <c r="R85" s="3" t="inlineStr"/>
       <c r="S85" s="3" t="inlineStr"/>
-      <c r="T85" s="3" t="inlineStr"/>
+      <c r="T85" s="3" t="inlineStr">
+        <is>
+          <t>harassment behaviour occurred three times</t>
+        </is>
+      </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6036,7 +6027,7 @@
       <c r="V85" s="3" t="inlineStr"/>
       <c r="W85" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X85" s="3" t="inlineStr">
@@ -6050,29 +6041,25 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t xml:space="preserve">nurture behaviour </t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr"/>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H86" s="3" t="inlineStr"/>
@@ -6090,10 +6077,15 @@
       <c r="P86" s="3" t="inlineStr"/>
       <c r="Q86" s="3" t="inlineStr"/>
       <c r="R86" s="3" t="inlineStr"/>
-      <c r="S86" s="3" t="inlineStr"/>
+      <c r="S86" s="3" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+        </is>
+      </c>
       <c r="T86" s="3" t="inlineStr">
         <is>
-          <t>harassment behaviour occurred three times</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
@@ -6104,7 +6096,7 @@
       <c r="V86" s="3" t="inlineStr"/>
       <c r="W86" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X86" s="3" t="inlineStr">
@@ -6118,25 +6110,25 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr"/>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr"/>
@@ -6156,13 +6148,12 @@
       <c r="R87" s="3" t="inlineStr"/>
       <c r="S87" s="3" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T87" s="3" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
@@ -6173,7 +6164,7 @@
       <c r="V87" s="3" t="inlineStr"/>
       <c r="W87" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X87" s="3" t="inlineStr">
@@ -6187,28 +6178,32 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr"/>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I88" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6225,12 +6220,12 @@
       <c r="R88" s="3" t="inlineStr"/>
       <c r="S88" s="3" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
       <c r="T88" s="3" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
         </is>
       </c>
       <c r="U88" s="3" t="inlineStr">
@@ -6255,32 +6250,28 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H89" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr"/>
       <c r="I89" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6295,16 +6286,8 @@
       <c r="P89" s="3" t="inlineStr"/>
       <c r="Q89" s="3" t="inlineStr"/>
       <c r="R89" s="3" t="inlineStr"/>
-      <c r="S89" s="3" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
-        </is>
-      </c>
-      <c r="T89" s="3" t="inlineStr">
-        <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
-        </is>
-      </c>
+      <c r="S89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="inlineStr"/>
       <c r="U89" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6313,7 +6296,7 @@
       <c r="V89" s="3" t="inlineStr"/>
       <c r="W89" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X89" s="3" t="inlineStr">
@@ -6327,25 +6310,25 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr"/>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr"/>
@@ -6387,25 +6370,25 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H91" s="3" t="inlineStr"/>
@@ -6424,7 +6407,11 @@
       <c r="Q91" s="3" t="inlineStr"/>
       <c r="R91" s="3" t="inlineStr"/>
       <c r="S91" s="3" t="inlineStr"/>
-      <c r="T91" s="3" t="inlineStr"/>
+      <c r="T91" s="3" t="inlineStr">
+        <is>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
+        </is>
+      </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6447,25 +6434,25 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr"/>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H92" s="3" t="inlineStr"/>
@@ -6483,10 +6470,14 @@
       <c r="P92" s="3" t="inlineStr"/>
       <c r="Q92" s="3" t="inlineStr"/>
       <c r="R92" s="3" t="inlineStr"/>
-      <c r="S92" s="3" t="inlineStr"/>
+      <c r="S92" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T92" s="3" t="inlineStr">
         <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U92" s="3" t="inlineStr">
@@ -6511,18 +6502,18 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr"/>
@@ -6547,14 +6538,10 @@
       <c r="P93" s="3" t="inlineStr"/>
       <c r="Q93" s="3" t="inlineStr"/>
       <c r="R93" s="3" t="inlineStr"/>
-      <c r="S93" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="S93" s="3" t="inlineStr"/>
       <c r="T93" s="3" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Undergoing surgery</t>
         </is>
       </c>
       <c r="U93" s="3" t="inlineStr">
@@ -6579,25 +6566,25 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H94" s="3" t="inlineStr"/>
@@ -6616,11 +6603,7 @@
       <c r="Q94" s="3" t="inlineStr"/>
       <c r="R94" s="3" t="inlineStr"/>
       <c r="S94" s="3" t="inlineStr"/>
-      <c r="T94" s="3" t="inlineStr">
-        <is>
-          <t>Undergoing surgery</t>
-        </is>
-      </c>
+      <c r="T94" s="3" t="inlineStr"/>
       <c r="U94" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6643,18 +6626,18 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
@@ -6703,18 +6686,18 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr"/>
@@ -6763,18 +6746,18 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr"/>
@@ -6823,28 +6806,32 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I98" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6859,8 +6846,16 @@
       <c r="P98" s="3" t="inlineStr"/>
       <c r="Q98" s="3" t="inlineStr"/>
       <c r="R98" s="3" t="inlineStr"/>
-      <c r="S98" s="3" t="inlineStr"/>
-      <c r="T98" s="3" t="inlineStr"/>
+      <c r="S98" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+        </is>
+      </c>
+      <c r="T98" s="3" t="inlineStr">
+        <is>
+          <t>Nail-cutting</t>
+        </is>
+      </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6869,7 +6864,7 @@
       <c r="V98" s="3" t="inlineStr"/>
       <c r="W98" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X98" s="3" t="inlineStr">
@@ -6883,32 +6878,28 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr"/>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H99" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="inlineStr"/>
       <c r="I99" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6925,12 +6916,12 @@
       <c r="R99" s="3" t="inlineStr"/>
       <c r="S99" s="3" t="inlineStr">
         <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
       <c r="T99" s="3" t="inlineStr">
         <is>
-          <t>Nail-cutting</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U99" s="3" t="inlineStr">
@@ -6941,7 +6932,7 @@
       <c r="V99" s="3" t="inlineStr"/>
       <c r="W99" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X99" s="3" t="inlineStr">
@@ -6955,25 +6946,25 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr"/>
@@ -6991,14 +6982,10 @@
       <c r="P100" s="3" t="inlineStr"/>
       <c r="Q100" s="3" t="inlineStr"/>
       <c r="R100" s="3" t="inlineStr"/>
-      <c r="S100" s="3" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
-        </is>
-      </c>
+      <c r="S100" s="3" t="inlineStr"/>
       <c r="T100" s="3" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U100" s="3" t="inlineStr">
@@ -7009,7 +6996,7 @@
       <c r="V100" s="3" t="inlineStr"/>
       <c r="W100" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X100" s="3" t="inlineStr">
@@ -7023,25 +7010,29 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr"/>
@@ -7062,7 +7053,7 @@
       <c r="S101" s="3" t="inlineStr"/>
       <c r="T101" s="3" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U101" s="3" t="inlineStr">
@@ -7073,7 +7064,7 @@
       <c r="V101" s="3" t="inlineStr"/>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X101" s="3" t="inlineStr">
@@ -7087,32 +7078,32 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">physical impact behaviour </t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H102" s="3" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I102" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7130,18 +7121,20 @@
       <c r="S102" s="3" t="inlineStr"/>
       <c r="T102" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="U102" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V102" s="3" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" s="3" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X102" s="3" t="inlineStr">
@@ -7155,32 +7148,28 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H103" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H103" s="3" t="inlineStr"/>
       <c r="I103" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7198,20 +7187,18 @@
       <c r="S103" s="3" t="inlineStr"/>
       <c r="T103" s="3" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U103" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V103" s="3" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+        </is>
+      </c>
+      <c r="U103" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V103" s="3" t="inlineStr"/>
       <c r="W103" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X103" s="3" t="inlineStr">
@@ -7225,28 +7212,32 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr"/>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H104" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7264,7 +7255,7 @@
       <c r="S104" s="3" t="inlineStr"/>
       <c r="T104" s="3" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
         </is>
       </c>
       <c r="U104" s="3" t="inlineStr">
@@ -7275,7 +7266,7 @@
       <c r="V104" s="3" t="inlineStr"/>
       <c r="W104" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X104" s="3" t="inlineStr">
@@ -7289,32 +7280,28 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr"/>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H105" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H105" s="3" t="inlineStr"/>
       <c r="I105" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7330,11 +7317,7 @@
       <c r="Q105" s="3" t="inlineStr"/>
       <c r="R105" s="3" t="inlineStr"/>
       <c r="S105" s="3" t="inlineStr"/>
-      <c r="T105" s="3" t="inlineStr">
-        <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
-        </is>
-      </c>
+      <c r="T105" s="3" t="inlineStr"/>
       <c r="U105" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7343,7 +7326,7 @@
       <c r="V105" s="3" t="inlineStr"/>
       <c r="W105" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X105" s="3" t="inlineStr">
@@ -7357,25 +7340,26 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr"/>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H106" s="3" t="inlineStr"/>
@@ -7417,26 +7401,25 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H107" s="3" t="inlineStr"/>
@@ -7464,7 +7447,7 @@
       <c r="V107" s="3" t="inlineStr"/>
       <c r="W107" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X107" s="3" t="inlineStr">
@@ -7478,28 +7461,32 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H108" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H108" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I108" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7524,7 +7511,7 @@
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X108" s="3" t="inlineStr">
@@ -7538,32 +7525,28 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr"/>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H109" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="inlineStr"/>
       <c r="I109" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7588,7 +7571,7 @@
       <c r="V109" s="3" t="inlineStr"/>
       <c r="W109" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X109" s="3" t="inlineStr">
@@ -7602,25 +7585,25 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H110" s="3" t="inlineStr"/>
@@ -7662,18 +7645,18 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr"/>
@@ -7698,7 +7681,12 @@
       <c r="P111" s="3" t="inlineStr"/>
       <c r="Q111" s="3" t="inlineStr"/>
       <c r="R111" s="3" t="inlineStr"/>
-      <c r="S111" s="3" t="inlineStr"/>
+      <c r="S111" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
       <c r="T111" s="3" t="inlineStr"/>
       <c r="U111" s="3" t="inlineStr">
         <is>
@@ -7722,28 +7710,32 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">pro-social behaviour </t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr"/>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H112" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I112" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7758,13 +7750,12 @@
       <c r="P112" s="3" t="inlineStr"/>
       <c r="Q112" s="3" t="inlineStr"/>
       <c r="R112" s="3" t="inlineStr"/>
-      <c r="S112" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
-      <c r="T112" s="3" t="inlineStr"/>
+      <c r="S112" s="3" t="inlineStr"/>
+      <c r="T112" s="3" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7773,7 +7764,7 @@
       <c r="V112" s="3" t="inlineStr"/>
       <c r="W112" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X112" s="3" t="inlineStr">
@@ -7787,30 +7778,34 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr"/>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
@@ -7824,15 +7819,15 @@
       <c r="M113" s="3" t="inlineStr"/>
       <c r="N113" s="3" t="inlineStr"/>
       <c r="O113" s="3" t="inlineStr"/>
-      <c r="P113" s="3" t="inlineStr"/>
+      <c r="P113" s="3" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q113" s="3" t="inlineStr"/>
       <c r="R113" s="3" t="inlineStr"/>
       <c r="S113" s="3" t="inlineStr"/>
-      <c r="T113" s="3" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="T113" s="3" t="inlineStr"/>
       <c r="U113" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7841,7 +7836,7 @@
       <c r="V113" s="3" t="inlineStr"/>
       <c r="W113" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X113" s="3" t="inlineStr">
@@ -7855,36 +7850,28 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr"/>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr"/>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="H114" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr"/>
       <c r="I114" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7896,11 +7883,7 @@
       <c r="M114" s="3" t="inlineStr"/>
       <c r="N114" s="3" t="inlineStr"/>
       <c r="O114" s="3" t="inlineStr"/>
-      <c r="P114" s="3" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P114" s="3" t="inlineStr"/>
       <c r="Q114" s="3" t="inlineStr"/>
       <c r="R114" s="3" t="inlineStr"/>
       <c r="S114" s="3" t="inlineStr"/>
@@ -7913,7 +7896,7 @@
       <c r="V114" s="3" t="inlineStr"/>
       <c r="W114" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X114" s="3" t="inlineStr">
@@ -7927,25 +7910,25 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr"/>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr"/>
@@ -7987,25 +7970,25 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr"/>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr"/>
@@ -8047,18 +8030,18 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr"/>
@@ -8107,18 +8090,18 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr"/>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr"/>
@@ -8167,25 +8150,25 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr"/>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H119" s="3" t="inlineStr"/>
@@ -8227,25 +8210,25 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr"/>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H120" s="3" t="inlineStr"/>
@@ -8287,18 +8270,18 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr"/>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
@@ -8347,18 +8330,18 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
@@ -8407,18 +8390,18 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
@@ -8467,25 +8450,25 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr"/>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H124" s="3" t="inlineStr"/>
@@ -8513,7 +8496,7 @@
       <c r="V124" s="3" t="inlineStr"/>
       <c r="W124" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X124" s="3" t="inlineStr">
@@ -8527,25 +8510,25 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr"/>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr"/>
@@ -8587,25 +8570,29 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>reclining</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H126" s="3" t="inlineStr"/>
@@ -8623,7 +8610,11 @@
       <c r="P126" s="3" t="inlineStr"/>
       <c r="Q126" s="3" t="inlineStr"/>
       <c r="R126" s="3" t="inlineStr"/>
-      <c r="S126" s="3" t="inlineStr"/>
+      <c r="S126" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
       <c r="T126" s="3" t="inlineStr"/>
       <c r="U126" s="3" t="inlineStr">
         <is>
@@ -8633,7 +8624,7 @@
       <c r="V126" s="3" t="inlineStr"/>
       <c r="W126" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X126" s="3" t="inlineStr">
@@ -8647,29 +8638,25 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">reproductive behaviour </t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr"/>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr"/>
@@ -8689,10 +8676,14 @@
       <c r="R127" s="3" t="inlineStr"/>
       <c r="S127" s="3" t="inlineStr">
         <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
-      <c r="T127" s="3" t="inlineStr"/>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T127" s="3" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8701,7 +8692,7 @@
       <c r="V127" s="3" t="inlineStr"/>
       <c r="W127" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X127" s="3" t="inlineStr">
@@ -8715,25 +8706,25 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr"/>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr"/>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr"/>
@@ -8751,16 +8742,8 @@
       <c r="P128" s="3" t="inlineStr"/>
       <c r="Q128" s="3" t="inlineStr"/>
       <c r="R128" s="3" t="inlineStr"/>
-      <c r="S128" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T128" s="3" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+      <c r="S128" s="3" t="inlineStr"/>
+      <c r="T128" s="3" t="inlineStr"/>
       <c r="U128" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8769,7 +8752,7 @@
       <c r="V128" s="3" t="inlineStr"/>
       <c r="W128" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X128" s="3" t="inlineStr">
@@ -8783,25 +8766,25 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr"/>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H129" s="3" t="inlineStr"/>
@@ -8819,7 +8802,11 @@
       <c r="P129" s="3" t="inlineStr"/>
       <c r="Q129" s="3" t="inlineStr"/>
       <c r="R129" s="3" t="inlineStr"/>
-      <c r="S129" s="3" t="inlineStr"/>
+      <c r="S129" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
       <c r="T129" s="3" t="inlineStr"/>
       <c r="U129" s="3" t="inlineStr">
         <is>
@@ -8843,25 +8830,25 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H130" s="3" t="inlineStr"/>
@@ -8881,10 +8868,14 @@
       <c r="R130" s="3" t="inlineStr"/>
       <c r="S130" s="3" t="inlineStr">
         <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
-      <c r="T130" s="3" t="inlineStr"/>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T130" s="3" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U130" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8893,7 +8884,7 @@
       <c r="V130" s="3" t="inlineStr"/>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X130" s="3" t="inlineStr">
@@ -8907,25 +8898,25 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr"/>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr"/>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H131" s="3" t="inlineStr"/>
@@ -8943,16 +8934,8 @@
       <c r="P131" s="3" t="inlineStr"/>
       <c r="Q131" s="3" t="inlineStr"/>
       <c r="R131" s="3" t="inlineStr"/>
-      <c r="S131" s="3" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T131" s="3" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+      <c r="S131" s="3" t="inlineStr"/>
+      <c r="T131" s="3" t="inlineStr"/>
       <c r="U131" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8961,7 +8944,7 @@
       <c r="V131" s="3" t="inlineStr"/>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr">
@@ -8975,28 +8958,32 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A life function-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr"/>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H132" s="3" t="inlineStr"/>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="H132" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I132" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9011,8 +8998,16 @@
       <c r="P132" s="3" t="inlineStr"/>
       <c r="Q132" s="3" t="inlineStr"/>
       <c r="R132" s="3" t="inlineStr"/>
-      <c r="S132" s="3" t="inlineStr"/>
-      <c r="T132" s="3" t="inlineStr"/>
+      <c r="S132" s="3" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T132" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U132" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9021,7 +9016,7 @@
       <c r="V132" s="3" t="inlineStr"/>
       <c r="W132" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X132" s="3" t="inlineStr">
@@ -9035,32 +9030,28 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves sexual arousal.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr"/>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H133" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H133" s="3" t="inlineStr"/>
       <c r="I133" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9075,16 +9066,8 @@
       <c r="P133" s="3" t="inlineStr"/>
       <c r="Q133" s="3" t="inlineStr"/>
       <c r="R133" s="3" t="inlineStr"/>
-      <c r="S133" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S133" s="3" t="inlineStr"/>
+      <c r="T133" s="3" t="inlineStr"/>
       <c r="U133" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9093,7 +9076,7 @@
       <c r="V133" s="3" t="inlineStr"/>
       <c r="W133" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X133" s="3" t="inlineStr">
@@ -9107,25 +9090,25 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr"/>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr"/>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H134" s="3" t="inlineStr"/>
@@ -9144,7 +9127,11 @@
       <c r="Q134" s="3" t="inlineStr"/>
       <c r="R134" s="3" t="inlineStr"/>
       <c r="S134" s="3" t="inlineStr"/>
-      <c r="T134" s="3" t="inlineStr"/>
+      <c r="T134" s="3" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9153,7 +9140,7 @@
       <c r="V134" s="3" t="inlineStr"/>
       <c r="W134" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X134" s="3" t="inlineStr">
@@ -9167,25 +9154,25 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr"/>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr"/>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr"/>
@@ -9204,11 +9191,7 @@
       <c r="Q135" s="3" t="inlineStr"/>
       <c r="R135" s="3" t="inlineStr"/>
       <c r="S135" s="3" t="inlineStr"/>
-      <c r="T135" s="3" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T135" s="3" t="inlineStr"/>
       <c r="U135" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9217,7 +9200,7 @@
       <c r="V135" s="3" t="inlineStr"/>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X135" s="3" t="inlineStr">
@@ -9231,28 +9214,32 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="H136" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H136" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I136" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9267,8 +9254,17 @@
       <c r="P136" s="3" t="inlineStr"/>
       <c r="Q136" s="3" t="inlineStr"/>
       <c r="R136" s="3" t="inlineStr"/>
-      <c r="S136" s="3" t="inlineStr"/>
-      <c r="T136" s="3" t="inlineStr"/>
+      <c r="S136" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T136" s="3" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U136" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9277,7 +9273,7 @@
       <c r="V136" s="3" t="inlineStr"/>
       <c r="W136" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X136" s="3" t="inlineStr">
@@ -9291,32 +9287,28 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H137" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H137" s="3" t="inlineStr"/>
       <c r="I137" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9331,17 +9323,8 @@
       <c r="P137" s="3" t="inlineStr"/>
       <c r="Q137" s="3" t="inlineStr"/>
       <c r="R137" s="3" t="inlineStr"/>
-      <c r="S137" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T137" s="3" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S137" s="3" t="inlineStr"/>
+      <c r="T137" s="3" t="inlineStr"/>
       <c r="U137" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9350,7 +9333,7 @@
       <c r="V137" s="3" t="inlineStr"/>
       <c r="W137" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X137" s="3" t="inlineStr">
@@ -9364,25 +9347,25 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr"/>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr"/>
@@ -9424,25 +9407,25 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr"/>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr"/>
@@ -9470,7 +9453,7 @@
       <c r="V139" s="3" t="inlineStr"/>
       <c r="W139" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X139" s="3" t="inlineStr">
@@ -9484,25 +9467,25 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr"/>
@@ -9521,7 +9504,11 @@
       <c r="Q140" s="3" t="inlineStr"/>
       <c r="R140" s="3" t="inlineStr"/>
       <c r="S140" s="3" t="inlineStr"/>
-      <c r="T140" s="3" t="inlineStr"/>
+      <c r="T140" s="3" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U140" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9530,7 +9517,7 @@
       <c r="V140" s="3" t="inlineStr"/>
       <c r="W140" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X140" s="3" t="inlineStr">
@@ -9544,25 +9531,25 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr"/>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H141" s="3" t="inlineStr"/>
@@ -9581,11 +9568,7 @@
       <c r="Q141" s="3" t="inlineStr"/>
       <c r="R141" s="3" t="inlineStr"/>
       <c r="S141" s="3" t="inlineStr"/>
-      <c r="T141" s="3" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T141" s="3" t="inlineStr"/>
       <c r="U141" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9594,7 +9577,7 @@
       <c r="V141" s="3" t="inlineStr"/>
       <c r="W141" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X141" s="3" t="inlineStr">
@@ -9608,28 +9591,32 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr"/>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr"/>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H142" s="3" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H142" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I142" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9642,9 +9629,17 @@
       <c r="N142" s="3" t="inlineStr"/>
       <c r="O142" s="3" t="inlineStr"/>
       <c r="P142" s="3" t="inlineStr"/>
-      <c r="Q142" s="3" t="inlineStr"/>
+      <c r="Q142" s="3" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R142" s="3" t="inlineStr"/>
-      <c r="S142" s="3" t="inlineStr"/>
+      <c r="S142" s="3" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T142" s="3" t="inlineStr"/>
       <c r="U142" s="3" t="inlineStr">
         <is>
@@ -9654,7 +9649,7 @@
       <c r="V142" s="3" t="inlineStr"/>
       <c r="W142" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X142" s="3" t="inlineStr">
@@ -9668,32 +9663,28 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr"/>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr"/>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H143" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H143" s="3" t="inlineStr"/>
       <c r="I143" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9706,17 +9697,9 @@
       <c r="N143" s="3" t="inlineStr"/>
       <c r="O143" s="3" t="inlineStr"/>
       <c r="P143" s="3" t="inlineStr"/>
-      <c r="Q143" s="3" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q143" s="3" t="inlineStr"/>
       <c r="R143" s="3" t="inlineStr"/>
-      <c r="S143" s="3" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S143" s="3" t="inlineStr"/>
       <c r="T143" s="3" t="inlineStr"/>
       <c r="U143" s="3" t="inlineStr">
         <is>
@@ -9726,7 +9709,7 @@
       <c r="V143" s="3" t="inlineStr"/>
       <c r="W143" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X143" s="3" t="inlineStr">
@@ -9740,25 +9723,25 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr"/>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr"/>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H144" s="3" t="inlineStr"/>
@@ -9776,7 +9759,11 @@
       <c r="P144" s="3" t="inlineStr"/>
       <c r="Q144" s="3" t="inlineStr"/>
       <c r="R144" s="3" t="inlineStr"/>
-      <c r="S144" s="3" t="inlineStr"/>
+      <c r="S144" s="3" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T144" s="3" t="inlineStr"/>
       <c r="U144" s="3" t="inlineStr">
         <is>
@@ -9786,7 +9773,7 @@
       <c r="V144" s="3" t="inlineStr"/>
       <c r="W144" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X144" s="3" t="inlineStr">
@@ -9800,28 +9787,32 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr"/>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr"/>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
-      <c r="H145" s="3" t="inlineStr"/>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="H145" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I145" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9834,13 +9825,13 @@
       <c r="N145" s="3" t="inlineStr"/>
       <c r="O145" s="3" t="inlineStr"/>
       <c r="P145" s="3" t="inlineStr"/>
-      <c r="Q145" s="3" t="inlineStr"/>
+      <c r="Q145" s="3" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R145" s="3" t="inlineStr"/>
-      <c r="S145" s="3" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S145" s="3" t="inlineStr"/>
       <c r="T145" s="3" t="inlineStr"/>
       <c r="U145" s="3" t="inlineStr">
         <is>
@@ -9850,7 +9841,7 @@
       <c r="V145" s="3" t="inlineStr"/>
       <c r="W145" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X145" s="3" t="inlineStr">
@@ -9864,25 +9855,25 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr"/>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr"/>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H146" s="3" t="inlineStr">
@@ -9902,11 +9893,7 @@
       <c r="N146" s="3" t="inlineStr"/>
       <c r="O146" s="3" t="inlineStr"/>
       <c r="P146" s="3" t="inlineStr"/>
-      <c r="Q146" s="3" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q146" s="3" t="inlineStr"/>
       <c r="R146" s="3" t="inlineStr"/>
       <c r="S146" s="3" t="inlineStr"/>
       <c r="T146" s="3" t="inlineStr"/>
@@ -9932,25 +9919,25 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr"/>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr"/>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H147" s="3" t="inlineStr">
@@ -9982,7 +9969,7 @@
       <c r="V147" s="3" t="inlineStr"/>
       <c r="W147" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X147" s="3" t="inlineStr">
@@ -9996,25 +9983,25 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr"/>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr"/>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H148" s="3" t="inlineStr">
@@ -10034,7 +10021,11 @@
       <c r="N148" s="3" t="inlineStr"/>
       <c r="O148" s="3" t="inlineStr"/>
       <c r="P148" s="3" t="inlineStr"/>
-      <c r="Q148" s="3" t="inlineStr"/>
+      <c r="Q148" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R148" s="3" t="inlineStr"/>
       <c r="S148" s="3" t="inlineStr"/>
       <c r="T148" s="3" t="inlineStr"/>
@@ -10046,7 +10037,7 @@
       <c r="V148" s="3" t="inlineStr"/>
       <c r="W148" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X148" s="3" t="inlineStr">
@@ -10060,25 +10051,25 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr"/>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr"/>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H149" s="3" t="inlineStr">
@@ -10114,7 +10105,7 @@
       <c r="V149" s="3" t="inlineStr"/>
       <c r="W149" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X149" s="3" t="inlineStr">
@@ -10128,25 +10119,29 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>individual human behaviour pattern cessation</t>
         </is>
       </c>
       <c r="H150" s="3" t="inlineStr">
@@ -10166,13 +10161,14 @@
       <c r="N150" s="3" t="inlineStr"/>
       <c r="O150" s="3" t="inlineStr"/>
       <c r="P150" s="3" t="inlineStr"/>
-      <c r="Q150" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q150" s="3" t="inlineStr"/>
       <c r="R150" s="3" t="inlineStr"/>
-      <c r="S150" s="3" t="inlineStr"/>
+      <c r="S150" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
       <c r="T150" s="3" t="inlineStr"/>
       <c r="U150" s="3" t="inlineStr">
         <is>
@@ -10182,7 +10178,7 @@
       <c r="V150" s="3" t="inlineStr"/>
       <c r="W150" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X150" s="3" t="inlineStr">
@@ -10196,36 +10192,28 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr"/>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr"/>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="H151" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr"/>
       <c r="I151" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10240,13 +10228,12 @@
       <c r="P151" s="3" t="inlineStr"/>
       <c r="Q151" s="3" t="inlineStr"/>
       <c r="R151" s="3" t="inlineStr"/>
-      <c r="S151" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
-      <c r="T151" s="3" t="inlineStr"/>
+      <c r="S151" s="3" t="inlineStr"/>
+      <c r="T151" s="3" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10255,7 +10242,7 @@
       <c r="V151" s="3" t="inlineStr"/>
       <c r="W151" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X151" s="3" t="inlineStr">
@@ -10269,25 +10256,25 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr"/>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr"/>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H152" s="3" t="inlineStr"/>
@@ -10306,11 +10293,7 @@
       <c r="Q152" s="3" t="inlineStr"/>
       <c r="R152" s="3" t="inlineStr"/>
       <c r="S152" s="3" t="inlineStr"/>
-      <c r="T152" s="3" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="T152" s="3" t="inlineStr"/>
       <c r="U152" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10319,7 +10302,7 @@
       <c r="V152" s="3" t="inlineStr"/>
       <c r="W152" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X152" s="3" t="inlineStr">
@@ -10333,25 +10316,25 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr"/>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr"/>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H153" s="3" t="inlineStr"/>
@@ -10369,7 +10352,12 @@
       <c r="P153" s="3" t="inlineStr"/>
       <c r="Q153" s="3" t="inlineStr"/>
       <c r="R153" s="3" t="inlineStr"/>
-      <c r="S153" s="3" t="inlineStr"/>
+      <c r="S153" s="3" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="T153" s="3" t="inlineStr"/>
       <c r="U153" s="3" t="inlineStr">
         <is>
@@ -10379,7 +10367,7 @@
       <c r="V153" s="3" t="inlineStr"/>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X153" s="3" t="inlineStr">
@@ -10393,25 +10381,25 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr"/>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H154" s="3" t="inlineStr"/>
@@ -10431,8 +10419,7 @@
       <c r="R154" s="3" t="inlineStr"/>
       <c r="S154" s="3" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="T154" s="3" t="inlineStr"/>
@@ -10444,7 +10431,7 @@
       <c r="V154" s="3" t="inlineStr"/>
       <c r="W154" s="3" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X154" s="3" t="inlineStr">
@@ -10458,28 +10445,36 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr"/>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr"/>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="H155" s="3" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H155" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I155" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10491,14 +10486,19 @@
       <c r="M155" s="3" t="inlineStr"/>
       <c r="N155" s="3" t="inlineStr"/>
       <c r="O155" s="3" t="inlineStr"/>
-      <c r="P155" s="3" t="inlineStr"/>
+      <c r="P155" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
       <c r="Q155" s="3" t="inlineStr"/>
       <c r="R155" s="3" t="inlineStr"/>
-      <c r="S155" s="3" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="S155" s="3" t="inlineStr"/>
       <c r="T155" s="3" t="inlineStr"/>
       <c r="U155" s="3" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
       <c r="V155" s="3" t="inlineStr"/>
       <c r="W155" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH; NB</t>
         </is>
       </c>
       <c r="X155" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2482,7 +2482,7 @@
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>behaviour pattern</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
@@ -2514,7 +2514,7 @@
       <c r="V31" s="3" t="inlineStr"/>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; NB</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2482,7 +2482,7 @@
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>behaviour pattern</t>
+          <t>behaviour pattern123</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -733,7 +733,7 @@
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; NB</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -605,7 +605,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1673,68 +1673,68 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>BCIO:050455</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>behavioural duration</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>PS; NB</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2482,7 +2482,7 @@
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>behaviour pattern123</t>
+          <t>behaviour pattern</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
